--- a/public/lib/lofter.xlsx
+++ b/public/lib/lofter.xlsx
@@ -4,20 +4,21 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="29980" windowHeight="14480" activeTab="2"/>
+    <workbookView windowWidth="29980" windowHeight="14480" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="角色" sheetId="4" r:id="rId1"/>
     <sheet name="CP" sheetId="3" r:id="rId2"/>
     <sheet name="角色-周" sheetId="2" r:id="rId3"/>
     <sheet name="CP -周" sheetId="5" r:id="rId4"/>
+    <sheet name="作品" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34">
   <si>
     <t>Tag</t>
   </si>
@@ -75,19 +76,66 @@
   <si>
     <t>伏虎</t>
   </si>
+  <si>
+    <t>话数</t>
+  </si>
+  <si>
+    <t>星期</t>
+  </si>
+  <si>
+    <t>日期</t>
+  </si>
+  <si>
+    <t>参与</t>
+  </si>
+  <si>
+    <t>增量</t>
+  </si>
+  <si>
+    <t>记录
+时间</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>星期一</t>
+  </si>
+  <si>
+    <t>第3话</t>
+  </si>
+  <si>
+    <t>星期六</t>
+  </si>
+  <si>
+    <t>13点</t>
+  </si>
+  <si>
+    <t>第4话</t>
+  </si>
+  <si>
+    <t>第5话</t>
+  </si>
+  <si>
+    <t>第6话</t>
+  </si>
+  <si>
+    <t>第7话</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="5">
+  <numFmts count="6">
     <numFmt numFmtId="176" formatCode="mm/dd"/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="0_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="27">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -96,8 +144,34 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <b/>
       <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
@@ -257,7 +331,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="39">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -266,13 +340,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFE2EFD9"/>
+        <fgColor rgb="FFFFF2CC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFF2CC"/>
+        <fgColor rgb="FFF4B083"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFBE4D5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDEEBF6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE6E4E4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE2EFD9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -617,178 +715,235 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="36" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="31" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="41" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="41" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="41" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="41" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -849,6 +1004,1728 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.11033290099438"/>
+          <c:y val="0.0560818083961249"/>
+          <c:w val="0.85796224239804"/>
+          <c:h val="0.860861141011841"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>作品!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>参与</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>作品!$C$2:$C$7</c:f>
+              <c:numCache>
+                <c:formatCode>mm/dd</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0" c:formatCode="mm/dd">
+                  <c:v>44116</c:v>
+                </c:pt>
+                <c:pt idx="1" c:formatCode="mm/dd">
+                  <c:v>44121</c:v>
+                </c:pt>
+                <c:pt idx="2" c:formatCode="mm/dd">
+                  <c:v>44128</c:v>
+                </c:pt>
+                <c:pt idx="3" c:formatCode="mm/dd">
+                  <c:v>44135</c:v>
+                </c:pt>
+                <c:pt idx="4" c:formatCode="mm/dd">
+                  <c:v>44142</c:v>
+                </c:pt>
+                <c:pt idx="5" c:formatCode="mm/dd">
+                  <c:v>44149</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>作品!$D$2:$D$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>2080</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2531</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3626</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5568</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8121</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>11366</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="638101655"/>
+        <c:axId val="508998458"/>
+      </c:lineChart>
+      <c:dateAx>
+        <c:axId val="638101655"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="508998458"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblOffset val="100"/>
+        <c:baseTimeUnit val="days"/>
+      </c:dateAx>
+      <c:valAx>
+        <c:axId val="508998458"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="638101655"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr lang="zh-CN"/>
+      </a:pPr>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>作品!$B$12</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>参与</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>作品!$A$13:$A$17</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>第3话</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>第4话</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>第5话</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>第6话</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>第7话</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>作品!$B$13:$B$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2531</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3626</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5568</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8121</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>11366</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="29319730"/>
+        <c:axId val="363557972"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="29319730"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="363557972"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="363557972"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="29319730"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr lang="zh-CN"/>
+      </a:pPr>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>431165</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>143510</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>413385</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>10160</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="图表 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="5267325" y="143510"/>
+        <a:ext cx="4127500" cy="6366510"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>540385</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>350520</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>76835</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="图表 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="540385" y="4983480"/>
+        <a:ext cx="3955415" cy="5982335"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1109,7 +2986,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B$1:B$1048576"/>
@@ -1117,355 +2994,388 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.06666666666667" defaultRowHeight="14.4"/>
   <sheetData>
-    <row r="1" ht="15.2" spans="1:10">
-      <c r="A1" s="1" t="s">
+    <row r="1" ht="15.2" spans="1:11">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2">
+      <c r="B1" s="19">
+        <v>44149</v>
+      </c>
+      <c r="C1" s="19">
         <v>44148</v>
       </c>
-      <c r="C1" s="2">
+      <c r="D1" s="19">
         <v>44147</v>
       </c>
-      <c r="D1" s="2">
+      <c r="E1" s="19">
         <v>44146</v>
       </c>
-      <c r="E1" s="2">
+      <c r="F1" s="19">
         <v>44145</v>
       </c>
-      <c r="F1" s="2">
+      <c r="G1" s="19">
         <v>44142</v>
       </c>
-      <c r="G1" s="2">
+      <c r="H1" s="19">
         <v>44135</v>
       </c>
-      <c r="H1" s="2">
+      <c r="I1" s="19">
         <v>44128</v>
       </c>
-      <c r="I1" s="2">
+      <c r="J1" s="19">
         <v>44121</v>
       </c>
-      <c r="J1" s="2">
+      <c r="K1" s="19">
         <v>44119</v>
       </c>
     </row>
-    <row r="2" ht="15.2" spans="1:10">
-      <c r="A2" s="6" t="s">
+    <row r="2" ht="15.2" spans="1:11">
+      <c r="A2" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="7">
+      <c r="B2" s="24">
+        <v>5147</v>
+      </c>
+      <c r="C2" s="24">
         <v>4811</v>
       </c>
-      <c r="C2" s="7">
+      <c r="D2" s="24">
         <v>4575</v>
       </c>
-      <c r="D2" s="7">
+      <c r="E2" s="24">
         <v>4374</v>
       </c>
-      <c r="E2" s="7">
+      <c r="F2" s="24">
         <v>4137</v>
       </c>
-      <c r="F2" s="7">
+      <c r="G2" s="24">
         <v>3429</v>
       </c>
-      <c r="G2" s="7">
+      <c r="H2" s="24">
         <v>2298</v>
       </c>
-      <c r="H2" s="7">
+      <c r="I2" s="24">
         <v>1477</v>
       </c>
-      <c r="I2" s="7">
+      <c r="J2" s="24">
         <v>980</v>
       </c>
-      <c r="J2" s="7">
+      <c r="K2" s="24">
         <v>919</v>
       </c>
     </row>
-    <row r="3" ht="15.2" spans="1:10">
-      <c r="A3" s="6" t="s">
+    <row r="3" ht="15.2" spans="1:11">
+      <c r="A3" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="7">
+      <c r="B3" s="24">
+        <v>2122</v>
+      </c>
+      <c r="C3" s="24">
         <v>2021</v>
       </c>
-      <c r="C3" s="7">
+      <c r="D3" s="24">
         <v>1924</v>
       </c>
-      <c r="D3" s="7">
+      <c r="E3" s="24">
         <v>1842</v>
       </c>
-      <c r="E3" s="7">
+      <c r="F3" s="24">
         <v>1754</v>
       </c>
-      <c r="F3" s="7">
+      <c r="G3" s="24">
         <v>1495</v>
       </c>
-      <c r="G3" s="7">
+      <c r="H3" s="24">
         <v>975</v>
       </c>
-      <c r="H3" s="7">
+      <c r="I3" s="24">
         <v>623</v>
       </c>
-      <c r="I3" s="7">
+      <c r="J3" s="24">
         <v>433</v>
       </c>
-      <c r="J3" s="7">
+      <c r="K3" s="24">
         <v>397</v>
       </c>
     </row>
-    <row r="4" ht="15.2" spans="1:10">
-      <c r="A4" s="6" t="s">
+    <row r="4" ht="15.2" spans="1:11">
+      <c r="A4" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="7">
+      <c r="B4" s="24">
+        <v>2132</v>
+      </c>
+      <c r="C4" s="24">
         <v>1989</v>
       </c>
-      <c r="C4" s="7">
+      <c r="D4" s="24">
         <v>1887</v>
       </c>
-      <c r="D4" s="7">
+      <c r="E4" s="24">
         <v>1800</v>
       </c>
-      <c r="E4" s="7">
+      <c r="F4" s="24">
         <v>1688</v>
       </c>
-      <c r="F4" s="7">
+      <c r="G4" s="24">
         <v>1355</v>
       </c>
-      <c r="G4" s="7">
+      <c r="H4" s="24">
         <v>886</v>
       </c>
-      <c r="H4" s="7">
+      <c r="I4" s="24">
         <v>575</v>
       </c>
-      <c r="I4" s="7">
+      <c r="J4" s="24">
         <v>394</v>
       </c>
-      <c r="J4" s="7">
+      <c r="K4" s="24">
         <v>354</v>
       </c>
     </row>
-    <row r="5" ht="15.2" spans="1:10">
-      <c r="A5" s="6" t="s">
+    <row r="5" ht="15.2" spans="1:11">
+      <c r="A5" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="7">
+      <c r="B5" s="24">
+        <v>1573</v>
+      </c>
+      <c r="C5" s="24">
         <v>1484</v>
       </c>
-      <c r="C5" s="7">
+      <c r="D5" s="24">
         <v>1417</v>
       </c>
-      <c r="D5" s="7">
+      <c r="E5" s="24">
         <v>1347</v>
       </c>
-      <c r="E5" s="7">
+      <c r="F5" s="24">
         <v>1271</v>
       </c>
-      <c r="F5" s="7">
+      <c r="G5" s="24">
         <v>1068</v>
       </c>
-      <c r="G5" s="7">
+      <c r="H5" s="24">
         <v>747</v>
       </c>
-      <c r="H5" s="7">
+      <c r="I5" s="24">
         <v>542</v>
       </c>
-      <c r="I5" s="7">
+      <c r="J5" s="24">
         <v>433</v>
       </c>
-      <c r="J5" s="7">
+      <c r="K5" s="24">
         <v>425</v>
       </c>
     </row>
-    <row r="6" ht="15.2" spans="1:10">
-      <c r="A6" s="6" t="s">
+    <row r="6" ht="15.2" spans="1:11">
+      <c r="A6" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="7">
+      <c r="B6" s="24">
+        <v>759</v>
+      </c>
+      <c r="C6" s="24">
         <v>702</v>
       </c>
-      <c r="C6" s="7">
+      <c r="D6" s="24">
         <v>653</v>
       </c>
-      <c r="D6" s="7">
+      <c r="E6" s="24">
         <v>626</v>
       </c>
-      <c r="E6" s="7">
+      <c r="F6" s="24">
         <v>587</v>
       </c>
-      <c r="F6" s="7">
+      <c r="G6" s="24">
         <v>477</v>
       </c>
-      <c r="G6" s="7">
+      <c r="H6" s="24">
         <v>290</v>
       </c>
-      <c r="H6" s="7">
+      <c r="I6" s="24">
         <v>150</v>
       </c>
-      <c r="I6" s="7">
+      <c r="J6" s="24">
         <v>100</v>
       </c>
-      <c r="J6" s="7">
+      <c r="K6" s="24">
         <v>88</v>
       </c>
     </row>
-    <row r="7" ht="15.2" spans="1:10">
-      <c r="A7" s="6" t="s">
+    <row r="7" ht="15.2" spans="1:11">
+      <c r="A7" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="7">
+      <c r="B7" s="24">
+        <v>421</v>
+      </c>
+      <c r="C7" s="24">
         <v>393</v>
       </c>
-      <c r="C7" s="7">
+      <c r="D7" s="24">
         <v>366</v>
       </c>
-      <c r="D7" s="7">
+      <c r="E7" s="24">
         <v>350</v>
       </c>
-      <c r="E7" s="7">
+      <c r="F7" s="24">
         <v>331</v>
       </c>
-      <c r="F7" s="7">
+      <c r="G7" s="24">
         <v>283</v>
       </c>
-      <c r="G7" s="7">
+      <c r="H7" s="24">
         <v>173</v>
       </c>
-      <c r="H7" s="7">
+      <c r="I7" s="24">
         <v>103</v>
       </c>
-      <c r="I7" s="7">
+      <c r="J7" s="24">
         <v>65</v>
       </c>
-      <c r="J7" s="7">
+      <c r="K7" s="24">
         <v>56</v>
       </c>
     </row>
-    <row r="8" ht="15.2" spans="1:10">
-      <c r="A8" s="6" t="s">
+    <row r="8" ht="15.2" spans="1:11">
+      <c r="A8" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="7">
+      <c r="B8" s="24">
+        <v>261</v>
+      </c>
+      <c r="C8" s="24">
         <v>243</v>
       </c>
-      <c r="C8" s="7">
+      <c r="D8" s="24">
         <v>221</v>
       </c>
-      <c r="D8" s="7">
+      <c r="E8" s="24">
         <v>204</v>
       </c>
-      <c r="E8" s="7">
+      <c r="F8" s="24">
         <v>193</v>
       </c>
-      <c r="F8" s="7">
+      <c r="G8" s="24">
         <v>156</v>
       </c>
-      <c r="G8" s="7">
+      <c r="H8" s="24">
         <v>112</v>
       </c>
-      <c r="H8" s="7">
+      <c r="I8" s="24">
         <v>75</v>
       </c>
-      <c r="I8" s="7">
+      <c r="J8" s="24">
         <v>54</v>
       </c>
-      <c r="J8" s="7">
+      <c r="K8" s="24">
         <v>54</v>
       </c>
     </row>
-    <row r="9" ht="15.2" spans="1:10">
-      <c r="A9" s="6" t="s">
+    <row r="9" ht="15.2" spans="1:11">
+      <c r="A9" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="8">
+      <c r="B9" s="25">
+        <v>100</v>
+      </c>
+      <c r="C9" s="25">
         <v>96</v>
       </c>
-      <c r="C9" s="8">
+      <c r="D9" s="25">
         <v>93</v>
       </c>
-      <c r="D9" s="8">
+      <c r="E9" s="25">
         <v>88</v>
       </c>
-      <c r="E9" s="8">
+      <c r="F9" s="25">
         <v>80</v>
       </c>
-      <c r="F9" s="8">
+      <c r="G9" s="25">
         <v>68</v>
       </c>
-      <c r="G9" s="8">
+      <c r="H9" s="25">
         <v>45</v>
       </c>
-      <c r="H9" s="8">
+      <c r="I9" s="25">
         <v>34</v>
       </c>
-      <c r="I9" s="8">
+      <c r="J9" s="25">
         <v>28</v>
       </c>
-      <c r="J9" s="8">
+      <c r="K9" s="25">
         <v>28</v>
       </c>
     </row>
-    <row r="10" ht="15.2" spans="1:10">
-      <c r="A10" s="6" t="s">
+    <row r="10" ht="15.2" spans="1:11">
+      <c r="A10" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="7">
+      <c r="B10" s="24">
+        <v>82</v>
+      </c>
+      <c r="C10" s="24">
         <v>77</v>
       </c>
-      <c r="C10" s="7">
+      <c r="D10" s="24">
         <v>75</v>
       </c>
-      <c r="D10" s="7">
+      <c r="E10" s="24">
         <v>72</v>
       </c>
-      <c r="E10" s="7">
+      <c r="F10" s="24">
         <v>66</v>
       </c>
-      <c r="F10" s="7">
+      <c r="G10" s="24">
         <v>48</v>
       </c>
-      <c r="G10" s="7">
+      <c r="H10" s="24">
         <v>34</v>
       </c>
-      <c r="H10" s="7">
+      <c r="I10" s="24">
         <v>17</v>
       </c>
-      <c r="I10" s="7">
+      <c r="J10" s="24">
         <v>12</v>
       </c>
-      <c r="J10" s="7">
+      <c r="K10" s="24">
         <v>12</v>
       </c>
     </row>
-    <row r="11" ht="15.2" spans="1:10">
-      <c r="A11" s="6" t="s">
+    <row r="11" ht="15.2" spans="1:11">
+      <c r="A11" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="4">
+      <c r="B11" s="21">
+        <v>52</v>
+      </c>
+      <c r="C11" s="21">
         <v>50</v>
       </c>
-      <c r="C11" s="4">
+      <c r="D11" s="21">
         <v>48</v>
       </c>
-      <c r="D11" s="4">
+      <c r="E11" s="21">
         <v>48</v>
       </c>
-      <c r="E11" s="4">
+      <c r="F11" s="21">
         <v>49</v>
       </c>
-      <c r="F11" s="4">
+      <c r="G11" s="21">
         <v>46</v>
       </c>
-      <c r="G11" s="4">
+      <c r="H11" s="21">
         <v>38</v>
       </c>
-      <c r="H11" s="4">
+      <c r="I11" s="21">
         <v>28</v>
       </c>
-      <c r="I11" s="7">
+      <c r="J11" s="24">
         <v>0</v>
       </c>
-      <c r="J11" s="7">
+      <c r="K11" s="24">
         <v>0</v>
       </c>
     </row>
@@ -1490,7 +3400,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B$1:B$1048576"/>
@@ -1498,264 +3408,318 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.06666666666667" defaultRowHeight="14.4"/>
   <sheetData>
-    <row r="1" ht="15.2" spans="1:9">
-      <c r="A1" s="1" t="s">
+    <row r="1" ht="15.2" spans="1:11">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2">
+      <c r="B1" s="19">
+        <v>44149</v>
+      </c>
+      <c r="C1" s="19">
+        <v>44148</v>
+      </c>
+      <c r="D1" s="19">
         <v>44147</v>
       </c>
-      <c r="C1" s="2">
+      <c r="E1" s="19">
         <v>44146</v>
       </c>
-      <c r="D1" s="2">
+      <c r="F1" s="19">
         <v>44145</v>
       </c>
-      <c r="E1" s="2">
+      <c r="G1" s="19">
         <v>44142</v>
       </c>
-      <c r="F1" s="2">
+      <c r="H1" s="19">
         <v>44135</v>
       </c>
-      <c r="G1" s="2">
+      <c r="I1" s="19">
         <v>44128</v>
       </c>
-      <c r="H1" s="2">
+      <c r="J1" s="19">
         <v>44121</v>
       </c>
-      <c r="I1" s="2">
+      <c r="K1" s="19">
         <v>44116</v>
       </c>
     </row>
-    <row r="2" ht="15.2" spans="1:9">
-      <c r="A2" s="3" t="s">
+    <row r="2" ht="15.2" spans="1:11">
+      <c r="A2" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="4">
+      <c r="B2" s="21">
+        <v>2065</v>
+      </c>
+      <c r="C2" s="21">
+        <v>1929</v>
+      </c>
+      <c r="D2" s="21">
         <v>1815</v>
       </c>
-      <c r="C2" s="4">
+      <c r="E2" s="21">
         <v>1734</v>
       </c>
-      <c r="D2" s="4">
+      <c r="F2" s="21">
         <v>1614</v>
       </c>
-      <c r="E2" s="4">
+      <c r="G2" s="21">
         <v>1283</v>
       </c>
-      <c r="F2" s="4">
+      <c r="H2" s="21">
         <v>721</v>
       </c>
-      <c r="G2" s="4">
+      <c r="I2" s="21">
         <v>377</v>
       </c>
-      <c r="H2" s="4">
+      <c r="J2" s="21">
         <v>202</v>
       </c>
-      <c r="I2" s="5">
+      <c r="K2" s="22">
         <v>121</v>
       </c>
     </row>
-    <row r="3" ht="15.2" spans="1:9">
-      <c r="A3" s="3" t="s">
+    <row r="3" ht="15.2" spans="1:11">
+      <c r="A3" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="4">
+      <c r="B3" s="21">
+        <v>1274</v>
+      </c>
+      <c r="C3" s="21">
+        <v>1211</v>
+      </c>
+      <c r="D3" s="21">
         <v>1151</v>
       </c>
-      <c r="C3" s="4">
+      <c r="E3" s="21">
         <v>1112</v>
       </c>
-      <c r="D3" s="4">
+      <c r="F3" s="21">
         <v>1040</v>
       </c>
-      <c r="E3" s="4">
+      <c r="G3" s="21">
         <v>858</v>
       </c>
-      <c r="F3" s="4">
+      <c r="H3" s="21">
         <v>597</v>
       </c>
-      <c r="G3" s="4">
+      <c r="I3" s="21">
         <v>382</v>
       </c>
-      <c r="H3" s="4">
+      <c r="J3" s="21">
         <v>258</v>
       </c>
-      <c r="I3" s="5">
+      <c r="K3" s="22">
         <v>223</v>
       </c>
     </row>
-    <row r="4" ht="15.2" spans="1:9">
-      <c r="A4" s="3" t="s">
+    <row r="4" ht="15.2" spans="1:11">
+      <c r="A4" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B4" s="21">
+        <v>1128</v>
+      </c>
+      <c r="C4" s="21">
+        <v>1075</v>
+      </c>
+      <c r="D4" s="21">
         <v>1034</v>
       </c>
-      <c r="C4" s="4">
+      <c r="E4" s="21">
         <v>994</v>
       </c>
-      <c r="D4" s="4">
+      <c r="F4" s="21">
         <v>951</v>
       </c>
-      <c r="E4" s="4">
+      <c r="G4" s="21">
         <v>853</v>
       </c>
-      <c r="F4" s="4">
+      <c r="H4" s="21">
         <v>653</v>
       </c>
-      <c r="G4" s="4">
+      <c r="I4" s="21">
         <v>546</v>
       </c>
-      <c r="H4" s="4">
+      <c r="J4" s="21">
         <v>479</v>
       </c>
-      <c r="I4" s="5">
+      <c r="K4" s="22">
         <v>456</v>
       </c>
     </row>
-    <row r="5" ht="15.2" spans="1:9">
-      <c r="A5" s="3" t="s">
+    <row r="5" ht="15.2" spans="1:11">
+      <c r="A5" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B5" s="21">
+        <v>935</v>
+      </c>
+      <c r="C5" s="21">
+        <v>890</v>
+      </c>
+      <c r="D5" s="21">
         <v>846</v>
       </c>
-      <c r="C5" s="4">
+      <c r="E5" s="21">
         <v>809</v>
       </c>
-      <c r="D5" s="4">
+      <c r="F5" s="21">
         <v>760</v>
       </c>
-      <c r="E5" s="4">
+      <c r="G5" s="21">
         <v>627</v>
       </c>
-      <c r="F5" s="4">
+      <c r="H5" s="21">
         <v>393</v>
       </c>
-      <c r="G5" s="4">
+      <c r="I5" s="21">
         <v>243</v>
       </c>
-      <c r="H5" s="4">
+      <c r="J5" s="21">
         <v>143</v>
       </c>
-      <c r="I5" s="5">
+      <c r="K5" s="22">
         <v>115</v>
       </c>
     </row>
-    <row r="6" ht="15.2" spans="1:9">
-      <c r="A6" s="3" t="s">
+    <row r="6" ht="15.2" spans="1:11">
+      <c r="A6" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="4">
+      <c r="B6" s="21">
+        <v>647</v>
+      </c>
+      <c r="C6" s="21">
+        <v>600</v>
+      </c>
+      <c r="D6" s="21">
         <v>575</v>
       </c>
-      <c r="C6" s="4">
+      <c r="E6" s="21">
         <v>547</v>
       </c>
-      <c r="D6" s="4">
+      <c r="F6" s="21">
         <v>502</v>
       </c>
-      <c r="E6" s="4">
+      <c r="G6" s="21">
         <v>380</v>
       </c>
-      <c r="F6" s="4">
+      <c r="H6" s="21">
         <v>209</v>
       </c>
-      <c r="G6" s="4">
+      <c r="I6" s="21">
         <v>132</v>
       </c>
-      <c r="H6" s="4">
+      <c r="J6" s="21">
         <v>88</v>
       </c>
-      <c r="I6" s="5">
+      <c r="K6" s="22">
         <v>60</v>
       </c>
     </row>
-    <row r="7" ht="15.2" spans="1:9">
-      <c r="A7" s="3" t="s">
+    <row r="7" ht="15.2" spans="1:11">
+      <c r="A7" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="4">
+      <c r="B7" s="21">
+        <v>501</v>
+      </c>
+      <c r="C7" s="21">
+        <v>484</v>
+      </c>
+      <c r="D7" s="21">
         <v>468</v>
       </c>
-      <c r="C7" s="4">
+      <c r="E7" s="21">
         <v>452</v>
       </c>
-      <c r="D7" s="4">
+      <c r="F7" s="21">
         <v>435</v>
       </c>
-      <c r="E7" s="4">
+      <c r="G7" s="21">
         <v>382</v>
       </c>
-      <c r="F7" s="4">
+      <c r="H7" s="21">
         <v>277</v>
       </c>
-      <c r="G7" s="4">
+      <c r="I7" s="21">
         <v>210</v>
       </c>
-      <c r="H7" s="4">
+      <c r="J7" s="21">
         <v>145</v>
       </c>
-      <c r="I7" s="5">
+      <c r="K7" s="22">
         <v>98</v>
       </c>
     </row>
-    <row r="8" ht="15.2" spans="1:9">
-      <c r="A8" s="3" t="s">
+    <row r="8" ht="15.2" spans="1:11">
+      <c r="A8" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="4">
+      <c r="B8" s="21">
+        <v>503</v>
+      </c>
+      <c r="C8" s="21">
+        <v>479</v>
+      </c>
+      <c r="D8" s="21">
         <v>460</v>
       </c>
-      <c r="C8" s="4">
+      <c r="E8" s="21">
         <v>426</v>
       </c>
-      <c r="D8" s="4">
+      <c r="F8" s="21">
         <v>392</v>
       </c>
-      <c r="E8" s="4">
+      <c r="G8" s="21">
         <v>315</v>
       </c>
-      <c r="F8" s="4">
+      <c r="H8" s="21">
         <v>204</v>
       </c>
-      <c r="G8" s="4">
+      <c r="I8" s="21">
         <v>108</v>
       </c>
-      <c r="H8" s="4">
+      <c r="J8" s="21">
         <v>67</v>
       </c>
-      <c r="I8" s="5">
+      <c r="K8" s="22">
         <v>48</v>
       </c>
     </row>
-    <row r="9" ht="15.2" spans="1:9">
-      <c r="A9" s="3" t="s">
+    <row r="9" ht="15.2" spans="1:11">
+      <c r="A9" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="4">
+      <c r="B9" s="21">
+        <v>369</v>
+      </c>
+      <c r="C9" s="21">
+        <v>355</v>
+      </c>
+      <c r="D9" s="21">
         <v>338</v>
       </c>
-      <c r="C9" s="4">
+      <c r="E9" s="21">
         <v>325</v>
       </c>
-      <c r="D9" s="4">
+      <c r="F9" s="21">
         <v>299</v>
       </c>
-      <c r="E9" s="4">
+      <c r="G9" s="21">
         <v>246</v>
       </c>
-      <c r="F9" s="4">
+      <c r="H9" s="21">
         <v>161</v>
       </c>
-      <c r="G9" s="4">
+      <c r="I9" s="21">
         <v>111</v>
       </c>
-      <c r="H9" s="4">
+      <c r="J9" s="21">
         <v>86</v>
       </c>
-      <c r="I9" s="5">
+      <c r="K9" s="22">
         <v>76</v>
       </c>
     </row>
@@ -1780,229 +3744,229 @@
   <sheetPr/>
   <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.06666666666667" defaultRowHeight="14.4" outlineLevelCol="5"/>
   <sheetData>
     <row r="1" ht="15.2" spans="1:6">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2">
-        <v>44148</v>
-      </c>
-      <c r="C1" s="2">
+      <c r="B1" s="19">
+        <v>44149</v>
+      </c>
+      <c r="C1" s="19">
         <v>44142</v>
       </c>
-      <c r="D1" s="2">
+      <c r="D1" s="19">
         <v>44135</v>
       </c>
-      <c r="E1" s="2">
+      <c r="E1" s="19">
         <v>44128</v>
       </c>
-      <c r="F1" s="2">
+      <c r="F1" s="19">
         <v>44121</v>
       </c>
     </row>
     <row r="2" ht="15.2" spans="1:6">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="7">
-        <v>4811</v>
-      </c>
-      <c r="C2" s="7">
+      <c r="B2" s="24">
+        <v>5147</v>
+      </c>
+      <c r="C2" s="24">
         <v>3429</v>
       </c>
-      <c r="D2" s="7">
+      <c r="D2" s="24">
         <v>2298</v>
       </c>
-      <c r="E2" s="7">
+      <c r="E2" s="24">
         <v>1477</v>
       </c>
-      <c r="F2" s="7">
+      <c r="F2" s="24">
         <v>980</v>
       </c>
     </row>
     <row r="3" ht="15.2" spans="1:6">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="7">
-        <v>2021</v>
-      </c>
-      <c r="C3" s="7">
+      <c r="B3" s="24">
+        <v>2122</v>
+      </c>
+      <c r="C3" s="24">
         <v>1495</v>
       </c>
-      <c r="D3" s="7">
+      <c r="D3" s="24">
         <v>975</v>
       </c>
-      <c r="E3" s="7">
+      <c r="E3" s="24">
         <v>623</v>
       </c>
-      <c r="F3" s="7">
+      <c r="F3" s="24">
         <v>433</v>
       </c>
     </row>
     <row r="4" ht="15.2" spans="1:6">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="7">
-        <v>1989</v>
-      </c>
-      <c r="C4" s="7">
+      <c r="B4" s="24">
+        <v>2132</v>
+      </c>
+      <c r="C4" s="24">
         <v>1355</v>
       </c>
-      <c r="D4" s="7">
+      <c r="D4" s="24">
         <v>886</v>
       </c>
-      <c r="E4" s="7">
+      <c r="E4" s="24">
         <v>575</v>
       </c>
-      <c r="F4" s="7">
+      <c r="F4" s="24">
         <v>394</v>
       </c>
     </row>
     <row r="5" ht="15.2" spans="1:6">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="7">
-        <v>1484</v>
-      </c>
-      <c r="C5" s="7">
+      <c r="B5" s="24">
+        <v>1573</v>
+      </c>
+      <c r="C5" s="24">
         <v>1068</v>
       </c>
-      <c r="D5" s="7">
+      <c r="D5" s="24">
         <v>747</v>
       </c>
-      <c r="E5" s="7">
+      <c r="E5" s="24">
         <v>542</v>
       </c>
-      <c r="F5" s="7">
+      <c r="F5" s="24">
         <v>433</v>
       </c>
     </row>
     <row r="6" ht="15.2" spans="1:6">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="7">
-        <v>702</v>
-      </c>
-      <c r="C6" s="7">
+      <c r="B6" s="24">
+        <v>759</v>
+      </c>
+      <c r="C6" s="24">
         <v>477</v>
       </c>
-      <c r="D6" s="7">
+      <c r="D6" s="24">
         <v>290</v>
       </c>
-      <c r="E6" s="7">
+      <c r="E6" s="24">
         <v>150</v>
       </c>
-      <c r="F6" s="7">
+      <c r="F6" s="24">
         <v>100</v>
       </c>
     </row>
     <row r="7" ht="15.2" spans="1:6">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="7">
-        <v>393</v>
-      </c>
-      <c r="C7" s="7">
+      <c r="B7" s="24">
+        <v>421</v>
+      </c>
+      <c r="C7" s="24">
         <v>283</v>
       </c>
-      <c r="D7" s="7">
+      <c r="D7" s="24">
         <v>173</v>
       </c>
-      <c r="E7" s="7">
+      <c r="E7" s="24">
         <v>103</v>
       </c>
-      <c r="F7" s="7">
+      <c r="F7" s="24">
         <v>65</v>
       </c>
     </row>
     <row r="8" ht="15.2" spans="1:6">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="7">
-        <v>243</v>
-      </c>
-      <c r="C8" s="7">
+      <c r="B8" s="24">
+        <v>261</v>
+      </c>
+      <c r="C8" s="24">
         <v>156</v>
       </c>
-      <c r="D8" s="7">
+      <c r="D8" s="24">
         <v>112</v>
       </c>
-      <c r="E8" s="7">
+      <c r="E8" s="24">
         <v>75</v>
       </c>
-      <c r="F8" s="7">
+      <c r="F8" s="24">
         <v>54</v>
       </c>
     </row>
     <row r="9" ht="15.2" spans="1:6">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="8">
-        <v>96</v>
-      </c>
-      <c r="C9" s="8">
+      <c r="B9" s="25">
+        <v>100</v>
+      </c>
+      <c r="C9" s="25">
         <v>68</v>
       </c>
-      <c r="D9" s="8">
+      <c r="D9" s="25">
         <v>45</v>
       </c>
-      <c r="E9" s="8">
+      <c r="E9" s="25">
         <v>34</v>
       </c>
-      <c r="F9" s="8">
+      <c r="F9" s="25">
         <v>28</v>
       </c>
     </row>
     <row r="10" ht="15.2" spans="1:6">
-      <c r="A10" s="6" t="s">
+      <c r="A10" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="7">
-        <v>77</v>
-      </c>
-      <c r="C10" s="7">
+      <c r="B10" s="24">
+        <v>82</v>
+      </c>
+      <c r="C10" s="24">
         <v>48</v>
       </c>
-      <c r="D10" s="7">
+      <c r="D10" s="24">
         <v>34</v>
       </c>
-      <c r="E10" s="7">
+      <c r="E10" s="24">
         <v>17</v>
       </c>
-      <c r="F10" s="7">
+      <c r="F10" s="24">
         <v>12</v>
       </c>
     </row>
     <row r="11" ht="15.2" spans="1:6">
-      <c r="A11" s="6" t="s">
+      <c r="A11" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="4">
-        <v>50</v>
-      </c>
-      <c r="C11" s="4">
+      <c r="B11" s="21">
+        <v>52</v>
+      </c>
+      <c r="C11" s="21">
         <v>46</v>
       </c>
-      <c r="D11" s="4">
+      <c r="D11" s="21">
         <v>38</v>
       </c>
-      <c r="E11" s="4">
+      <c r="E11" s="21">
         <v>28</v>
       </c>
-      <c r="F11" s="7">
+      <c r="F11" s="24">
         <v>0</v>
       </c>
     </row>
@@ -2029,216 +3993,216 @@
   <sheetPr/>
   <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K21" sqref="K21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G1" sqref="G$1:G$1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.06666666666667" defaultRowHeight="14.4" outlineLevelCol="6"/>
   <sheetData>
     <row r="1" ht="15.2" spans="1:7">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2">
-        <v>44147</v>
-      </c>
-      <c r="C1" s="2">
+      <c r="B1" s="19">
+        <v>44149</v>
+      </c>
+      <c r="C1" s="19">
         <v>44142</v>
       </c>
-      <c r="D1" s="2">
+      <c r="D1" s="19">
         <v>44135</v>
       </c>
-      <c r="E1" s="2">
+      <c r="E1" s="19">
         <v>44128</v>
       </c>
-      <c r="F1" s="2">
+      <c r="F1" s="19">
         <v>44121</v>
       </c>
-      <c r="G1" s="2">
+      <c r="G1" s="19">
         <v>44116</v>
       </c>
     </row>
     <row r="2" ht="15.2" spans="1:7">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="4">
-        <v>1815</v>
-      </c>
-      <c r="C2" s="4">
+      <c r="B2" s="21">
+        <v>2065</v>
+      </c>
+      <c r="C2" s="21">
         <v>1283</v>
       </c>
-      <c r="D2" s="4">
+      <c r="D2" s="21">
         <v>721</v>
       </c>
-      <c r="E2" s="4">
+      <c r="E2" s="21">
         <v>377</v>
       </c>
-      <c r="F2" s="4">
+      <c r="F2" s="21">
         <v>202</v>
       </c>
-      <c r="G2" s="5">
+      <c r="G2" s="22">
         <v>121</v>
       </c>
     </row>
     <row r="3" ht="15.2" spans="1:7">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="4">
-        <v>1151</v>
-      </c>
-      <c r="C3" s="4">
+      <c r="B3" s="21">
+        <v>1274</v>
+      </c>
+      <c r="C3" s="21">
         <v>858</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3" s="21">
         <v>597</v>
       </c>
-      <c r="E3" s="4">
+      <c r="E3" s="21">
         <v>382</v>
       </c>
-      <c r="F3" s="4">
+      <c r="F3" s="21">
         <v>258</v>
       </c>
-      <c r="G3" s="5">
+      <c r="G3" s="22">
         <v>223</v>
       </c>
     </row>
     <row r="4" ht="15.2" spans="1:7">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="4">
-        <v>1034</v>
-      </c>
-      <c r="C4" s="4">
+      <c r="B4" s="21">
+        <v>1128</v>
+      </c>
+      <c r="C4" s="21">
         <v>853</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="21">
         <v>653</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E4" s="21">
         <v>546</v>
       </c>
-      <c r="F4" s="4">
+      <c r="F4" s="21">
         <v>479</v>
       </c>
-      <c r="G4" s="5">
+      <c r="G4" s="22">
         <v>456</v>
       </c>
     </row>
     <row r="5" ht="15.2" spans="1:7">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="4">
-        <v>846</v>
-      </c>
-      <c r="C5" s="4">
+      <c r="B5" s="21">
+        <v>935</v>
+      </c>
+      <c r="C5" s="21">
         <v>627</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="21">
         <v>393</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E5" s="21">
         <v>243</v>
       </c>
-      <c r="F5" s="4">
+      <c r="F5" s="21">
         <v>143</v>
       </c>
-      <c r="G5" s="5">
+      <c r="G5" s="22">
         <v>115</v>
       </c>
     </row>
     <row r="6" ht="15.2" spans="1:7">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="4">
-        <v>575</v>
-      </c>
-      <c r="C6" s="4">
+      <c r="B6" s="21">
+        <v>647</v>
+      </c>
+      <c r="C6" s="21">
         <v>380</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6" s="21">
         <v>209</v>
       </c>
-      <c r="E6" s="4">
+      <c r="E6" s="21">
         <v>132</v>
       </c>
-      <c r="F6" s="4">
+      <c r="F6" s="21">
         <v>88</v>
       </c>
-      <c r="G6" s="5">
+      <c r="G6" s="22">
         <v>60</v>
       </c>
     </row>
     <row r="7" ht="15.2" spans="1:7">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="4">
-        <v>468</v>
-      </c>
-      <c r="C7" s="4">
+      <c r="B7" s="21">
+        <v>501</v>
+      </c>
+      <c r="C7" s="21">
         <v>382</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7" s="21">
         <v>277</v>
       </c>
-      <c r="E7" s="4">
+      <c r="E7" s="21">
         <v>210</v>
       </c>
-      <c r="F7" s="4">
+      <c r="F7" s="21">
         <v>145</v>
       </c>
-      <c r="G7" s="5">
+      <c r="G7" s="22">
         <v>98</v>
       </c>
     </row>
     <row r="8" ht="15.2" spans="1:7">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="4">
-        <v>460</v>
-      </c>
-      <c r="C8" s="4">
+      <c r="B8" s="21">
+        <v>503</v>
+      </c>
+      <c r="C8" s="21">
         <v>315</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D8" s="21">
         <v>204</v>
       </c>
-      <c r="E8" s="4">
+      <c r="E8" s="21">
         <v>108</v>
       </c>
-      <c r="F8" s="4">
+      <c r="F8" s="21">
         <v>67</v>
       </c>
-      <c r="G8" s="5">
+      <c r="G8" s="22">
         <v>48</v>
       </c>
     </row>
     <row r="9" ht="15.2" spans="1:7">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="4">
-        <v>338</v>
-      </c>
-      <c r="C9" s="4">
+      <c r="B9" s="21">
+        <v>369</v>
+      </c>
+      <c r="C9" s="21">
         <v>246</v>
       </c>
-      <c r="D9" s="4">
+      <c r="D9" s="21">
         <v>161</v>
       </c>
-      <c r="E9" s="4">
+      <c r="E9" s="21">
         <v>111</v>
       </c>
-      <c r="F9" s="4">
+      <c r="F9" s="21">
         <v>86</v>
       </c>
-      <c r="G9" s="5">
+      <c r="G9" s="22">
         <v>76</v>
       </c>
     </row>
@@ -2256,4 +4220,211 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:F17"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="S26" sqref="S26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.06666666666667" defaultRowHeight="14.4" outlineLevelCol="5"/>
+  <sheetData>
+    <row r="1" ht="27" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" s="13" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" ht="15.2" spans="1:6">
+      <c r="A2" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" s="6">
+        <v>44116</v>
+      </c>
+      <c r="D2" s="7">
+        <v>2080</v>
+      </c>
+      <c r="E2" s="14"/>
+      <c r="F2" s="27" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" ht="15.2" spans="1:6">
+      <c r="A3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" s="9">
+        <v>44121</v>
+      </c>
+      <c r="D3" s="10">
+        <v>2531</v>
+      </c>
+      <c r="E3" s="15">
+        <f>D3-D2</f>
+        <v>451</v>
+      </c>
+      <c r="F3" s="16" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" ht="15.2" spans="1:6">
+      <c r="A4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" s="9">
+        <v>44128</v>
+      </c>
+      <c r="D4" s="10">
+        <v>3626</v>
+      </c>
+      <c r="E4" s="15">
+        <f>D4-D3</f>
+        <v>1095</v>
+      </c>
+      <c r="F4" s="16" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" ht="15.2" spans="1:6">
+      <c r="A5" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" s="9">
+        <v>44135</v>
+      </c>
+      <c r="D5" s="10">
+        <v>5568</v>
+      </c>
+      <c r="E5" s="15">
+        <f>D5-D4</f>
+        <v>1942</v>
+      </c>
+      <c r="F5" s="16" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" ht="15.2" spans="1:6">
+      <c r="A6" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" s="9">
+        <v>44142</v>
+      </c>
+      <c r="D6" s="11">
+        <v>8121</v>
+      </c>
+      <c r="E6" s="17">
+        <f>D6-D5</f>
+        <v>2553</v>
+      </c>
+      <c r="F6" s="16" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" ht="15.2" spans="1:6">
+      <c r="A7" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" s="9">
+        <v>44149</v>
+      </c>
+      <c r="D7" s="10">
+        <v>11366</v>
+      </c>
+      <c r="E7" s="15">
+        <f>D7-D6</f>
+        <v>3245</v>
+      </c>
+      <c r="F7" s="16"/>
+    </row>
+    <row r="12" ht="15.2" spans="1:2">
+      <c r="A12" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" ht="15.2" spans="1:2">
+      <c r="A13" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13" s="10">
+        <v>2531</v>
+      </c>
+    </row>
+    <row r="14" ht="15.2" spans="1:2">
+      <c r="A14" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B14" s="10">
+        <v>3626</v>
+      </c>
+    </row>
+    <row r="15" ht="15.2" spans="1:2">
+      <c r="A15" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B15" s="10">
+        <v>5568</v>
+      </c>
+    </row>
+    <row r="16" ht="15.2" spans="1:2">
+      <c r="A16" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B16" s="11">
+        <v>8121</v>
+      </c>
+    </row>
+    <row r="17" ht="15.2" spans="1:2">
+      <c r="A17" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B17" s="10">
+        <v>11366</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/public/lib/lofter.xlsx
+++ b/public/lib/lofter.xlsx
@@ -2989,7 +2989,7 @@
   <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B$1:B$1048576"/>
+      <selection activeCell="O26" sqref="O26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.06666666666667" defaultRowHeight="14.4"/>
@@ -3403,7 +3403,7 @@
   <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B$1:B$1048576"/>
+      <selection activeCell="M21" sqref="M21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.06666666666667" defaultRowHeight="14.4"/>
@@ -3745,7 +3745,7 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.06666666666667" defaultRowHeight="14.4" outlineLevelCol="5"/>
@@ -3775,7 +3775,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="24">
-        <v>5147</v>
+        <v>5195</v>
       </c>
       <c r="C2" s="24">
         <v>3429</v>
@@ -3795,7 +3795,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="24">
-        <v>2122</v>
+        <v>2136</v>
       </c>
       <c r="C3" s="24">
         <v>1495</v>
@@ -3815,7 +3815,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="24">
-        <v>2132</v>
+        <v>2155</v>
       </c>
       <c r="C4" s="24">
         <v>1355</v>
@@ -3835,7 +3835,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="24">
-        <v>1573</v>
+        <v>1579</v>
       </c>
       <c r="C5" s="24">
         <v>1068</v>
@@ -3855,7 +3855,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="24">
-        <v>759</v>
+        <v>765</v>
       </c>
       <c r="C6" s="24">
         <v>477</v>
@@ -3875,7 +3875,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="24">
-        <v>421</v>
+        <v>425</v>
       </c>
       <c r="C7" s="24">
         <v>283</v>
@@ -3895,7 +3895,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="24">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="C8" s="24">
         <v>156</v>
@@ -3935,7 +3935,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="24">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C10" s="24">
         <v>48</v>
@@ -3955,7 +3955,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="21">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C11" s="21">
         <v>46</v>
@@ -3994,7 +3994,7 @@
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G$1:G$1048576"/>
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.06666666666667" defaultRowHeight="14.4" outlineLevelCol="6"/>
@@ -4027,7 +4027,7 @@
         <v>11</v>
       </c>
       <c r="B2" s="21">
-        <v>2065</v>
+        <v>2075</v>
       </c>
       <c r="C2" s="21">
         <v>1283</v>
@@ -4050,7 +4050,7 @@
         <v>12</v>
       </c>
       <c r="B3" s="21">
-        <v>1274</v>
+        <v>1275</v>
       </c>
       <c r="C3" s="21">
         <v>858</v>
@@ -4096,7 +4096,7 @@
         <v>14</v>
       </c>
       <c r="B5" s="21">
-        <v>935</v>
+        <v>941</v>
       </c>
       <c r="C5" s="21">
         <v>627</v>
@@ -4119,7 +4119,7 @@
         <v>15</v>
       </c>
       <c r="B6" s="21">
-        <v>647</v>
+        <v>656</v>
       </c>
       <c r="C6" s="21">
         <v>380</v>
@@ -4142,7 +4142,7 @@
         <v>16</v>
       </c>
       <c r="B7" s="21">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="C7" s="21">
         <v>382</v>
@@ -4165,7 +4165,7 @@
         <v>17</v>
       </c>
       <c r="B8" s="21">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="C8" s="21">
         <v>315</v>
@@ -4188,7 +4188,7 @@
         <v>18</v>
       </c>
       <c r="B9" s="21">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="C9" s="21">
         <v>246</v>

--- a/public/lib/lofter.xlsx
+++ b/public/lib/lofter.xlsx
@@ -2989,7 +2989,7 @@
   <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O26" sqref="O26"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.06666666666667" defaultRowHeight="14.4"/>
@@ -3400,326 +3400,353 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:K9"/>
+  <dimension ref="A1:L9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M21" sqref="M21"/>
+      <selection activeCell="B1" sqref="B$1:B$1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.06666666666667" defaultRowHeight="14.4"/>
   <sheetData>
-    <row r="1" ht="15.2" spans="1:11">
+    <row r="1" ht="15.2" spans="1:12">
       <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="19">
+        <v>44150</v>
+      </c>
+      <c r="C1" s="19">
         <v>44149</v>
       </c>
-      <c r="C1" s="19">
+      <c r="D1" s="19">
         <v>44148</v>
       </c>
-      <c r="D1" s="19">
+      <c r="E1" s="19">
         <v>44147</v>
       </c>
-      <c r="E1" s="19">
+      <c r="F1" s="19">
         <v>44146</v>
       </c>
-      <c r="F1" s="19">
+      <c r="G1" s="19">
         <v>44145</v>
       </c>
-      <c r="G1" s="19">
+      <c r="H1" s="19">
         <v>44142</v>
       </c>
-      <c r="H1" s="19">
+      <c r="I1" s="19">
         <v>44135</v>
       </c>
-      <c r="I1" s="19">
+      <c r="J1" s="19">
         <v>44128</v>
       </c>
-      <c r="J1" s="19">
+      <c r="K1" s="19">
         <v>44121</v>
       </c>
-      <c r="K1" s="19">
+      <c r="L1" s="19">
         <v>44116</v>
       </c>
     </row>
-    <row r="2" ht="15.2" spans="1:11">
+    <row r="2" ht="15.2" spans="1:12">
       <c r="A2" s="20" t="s">
         <v>11</v>
       </c>
       <c r="B2" s="21">
+        <v>2341</v>
+      </c>
+      <c r="C2" s="21">
         <v>2065</v>
       </c>
-      <c r="C2" s="21">
+      <c r="D2" s="21">
         <v>1929</v>
       </c>
-      <c r="D2" s="21">
+      <c r="E2" s="21">
         <v>1815</v>
       </c>
-      <c r="E2" s="21">
+      <c r="F2" s="21">
         <v>1734</v>
       </c>
-      <c r="F2" s="21">
+      <c r="G2" s="21">
         <v>1614</v>
       </c>
-      <c r="G2" s="21">
+      <c r="H2" s="21">
         <v>1283</v>
       </c>
-      <c r="H2" s="21">
+      <c r="I2" s="21">
         <v>721</v>
       </c>
-      <c r="I2" s="21">
+      <c r="J2" s="21">
         <v>377</v>
       </c>
-      <c r="J2" s="21">
+      <c r="K2" s="21">
         <v>202</v>
       </c>
-      <c r="K2" s="22">
+      <c r="L2" s="22">
         <v>121</v>
       </c>
     </row>
-    <row r="3" ht="15.2" spans="1:11">
+    <row r="3" ht="15.2" spans="1:12">
       <c r="A3" s="20" t="s">
         <v>12</v>
       </c>
       <c r="B3" s="21">
+        <v>1400</v>
+      </c>
+      <c r="C3" s="21">
         <v>1274</v>
       </c>
-      <c r="C3" s="21">
+      <c r="D3" s="21">
         <v>1211</v>
       </c>
-      <c r="D3" s="21">
+      <c r="E3" s="21">
         <v>1151</v>
       </c>
-      <c r="E3" s="21">
+      <c r="F3" s="21">
         <v>1112</v>
       </c>
-      <c r="F3" s="21">
+      <c r="G3" s="21">
         <v>1040</v>
       </c>
-      <c r="G3" s="21">
+      <c r="H3" s="21">
         <v>858</v>
       </c>
-      <c r="H3" s="21">
+      <c r="I3" s="21">
         <v>597</v>
       </c>
-      <c r="I3" s="21">
+      <c r="J3" s="21">
         <v>382</v>
       </c>
-      <c r="J3" s="21">
+      <c r="K3" s="21">
         <v>258</v>
       </c>
-      <c r="K3" s="22">
+      <c r="L3" s="22">
         <v>223</v>
       </c>
     </row>
-    <row r="4" ht="15.2" spans="1:11">
+    <row r="4" ht="15.2" spans="1:12">
       <c r="A4" s="20" t="s">
         <v>13</v>
       </c>
       <c r="B4" s="21">
+        <v>1222</v>
+      </c>
+      <c r="C4" s="21">
         <v>1128</v>
       </c>
-      <c r="C4" s="21">
+      <c r="D4" s="21">
         <v>1075</v>
       </c>
-      <c r="D4" s="21">
+      <c r="E4" s="21">
         <v>1034</v>
       </c>
-      <c r="E4" s="21">
+      <c r="F4" s="21">
         <v>994</v>
       </c>
-      <c r="F4" s="21">
+      <c r="G4" s="21">
         <v>951</v>
       </c>
-      <c r="G4" s="21">
+      <c r="H4" s="21">
         <v>853</v>
       </c>
-      <c r="H4" s="21">
+      <c r="I4" s="21">
         <v>653</v>
       </c>
-      <c r="I4" s="21">
+      <c r="J4" s="21">
         <v>546</v>
       </c>
-      <c r="J4" s="21">
+      <c r="K4" s="21">
         <v>479</v>
       </c>
-      <c r="K4" s="22">
+      <c r="L4" s="22">
         <v>456</v>
       </c>
     </row>
-    <row r="5" ht="15.2" spans="1:11">
+    <row r="5" ht="15.2" spans="1:12">
       <c r="A5" s="20" t="s">
         <v>14</v>
       </c>
       <c r="B5" s="21">
+        <v>1061</v>
+      </c>
+      <c r="C5" s="21">
         <v>935</v>
       </c>
-      <c r="C5" s="21">
+      <c r="D5" s="21">
         <v>890</v>
       </c>
-      <c r="D5" s="21">
+      <c r="E5" s="21">
         <v>846</v>
       </c>
-      <c r="E5" s="21">
+      <c r="F5" s="21">
         <v>809</v>
       </c>
-      <c r="F5" s="21">
+      <c r="G5" s="21">
         <v>760</v>
       </c>
-      <c r="G5" s="21">
+      <c r="H5" s="21">
         <v>627</v>
       </c>
-      <c r="H5" s="21">
+      <c r="I5" s="21">
         <v>393</v>
       </c>
-      <c r="I5" s="21">
+      <c r="J5" s="21">
         <v>243</v>
       </c>
-      <c r="J5" s="21">
+      <c r="K5" s="21">
         <v>143</v>
       </c>
-      <c r="K5" s="22">
+      <c r="L5" s="22">
         <v>115</v>
       </c>
     </row>
-    <row r="6" ht="15.2" spans="1:11">
+    <row r="6" ht="15.2" spans="1:12">
       <c r="A6" s="20" t="s">
         <v>15</v>
       </c>
       <c r="B6" s="21">
+        <v>730</v>
+      </c>
+      <c r="C6" s="21">
         <v>647</v>
       </c>
-      <c r="C6" s="21">
+      <c r="D6" s="21">
         <v>600</v>
       </c>
-      <c r="D6" s="21">
+      <c r="E6" s="21">
         <v>575</v>
       </c>
-      <c r="E6" s="21">
+      <c r="F6" s="21">
         <v>547</v>
       </c>
-      <c r="F6" s="21">
+      <c r="G6" s="21">
         <v>502</v>
       </c>
-      <c r="G6" s="21">
+      <c r="H6" s="21">
         <v>380</v>
       </c>
-      <c r="H6" s="21">
+      <c r="I6" s="21">
         <v>209</v>
       </c>
-      <c r="I6" s="21">
+      <c r="J6" s="21">
         <v>132</v>
       </c>
-      <c r="J6" s="21">
+      <c r="K6" s="21">
         <v>88</v>
       </c>
-      <c r="K6" s="22">
+      <c r="L6" s="22">
         <v>60</v>
       </c>
     </row>
-    <row r="7" ht="15.2" spans="1:11">
+    <row r="7" ht="15.2" spans="1:12">
       <c r="A7" s="20" t="s">
         <v>16</v>
       </c>
       <c r="B7" s="21">
+        <v>537</v>
+      </c>
+      <c r="C7" s="21">
         <v>501</v>
       </c>
-      <c r="C7" s="21">
+      <c r="D7" s="21">
         <v>484</v>
       </c>
-      <c r="D7" s="21">
+      <c r="E7" s="21">
         <v>468</v>
       </c>
-      <c r="E7" s="21">
+      <c r="F7" s="21">
         <v>452</v>
       </c>
-      <c r="F7" s="21">
+      <c r="G7" s="21">
         <v>435</v>
       </c>
-      <c r="G7" s="21">
+      <c r="H7" s="21">
         <v>382</v>
       </c>
-      <c r="H7" s="21">
+      <c r="I7" s="21">
         <v>277</v>
       </c>
-      <c r="I7" s="21">
+      <c r="J7" s="21">
         <v>210</v>
       </c>
-      <c r="J7" s="21">
+      <c r="K7" s="21">
         <v>145</v>
       </c>
-      <c r="K7" s="22">
+      <c r="L7" s="22">
         <v>98</v>
       </c>
     </row>
-    <row r="8" ht="15.2" spans="1:11">
+    <row r="8" ht="15.2" spans="1:12">
       <c r="A8" s="20" t="s">
         <v>17</v>
       </c>
       <c r="B8" s="21">
+        <v>547</v>
+      </c>
+      <c r="C8" s="21">
         <v>503</v>
       </c>
-      <c r="C8" s="21">
+      <c r="D8" s="21">
         <v>479</v>
       </c>
-      <c r="D8" s="21">
+      <c r="E8" s="21">
         <v>460</v>
       </c>
-      <c r="E8" s="21">
+      <c r="F8" s="21">
         <v>426</v>
       </c>
-      <c r="F8" s="21">
+      <c r="G8" s="21">
         <v>392</v>
       </c>
-      <c r="G8" s="21">
+      <c r="H8" s="21">
         <v>315</v>
       </c>
-      <c r="H8" s="21">
+      <c r="I8" s="21">
         <v>204</v>
       </c>
-      <c r="I8" s="21">
+      <c r="J8" s="21">
         <v>108</v>
       </c>
-      <c r="J8" s="21">
+      <c r="K8" s="21">
         <v>67</v>
       </c>
-      <c r="K8" s="22">
+      <c r="L8" s="22">
         <v>48</v>
       </c>
     </row>
-    <row r="9" ht="15.2" spans="1:11">
+    <row r="9" ht="15.2" spans="1:12">
       <c r="A9" s="20" t="s">
         <v>18</v>
       </c>
       <c r="B9" s="21">
+        <v>402</v>
+      </c>
+      <c r="C9" s="21">
         <v>369</v>
       </c>
-      <c r="C9" s="21">
+      <c r="D9" s="21">
         <v>355</v>
       </c>
-      <c r="D9" s="21">
+      <c r="E9" s="21">
         <v>338</v>
       </c>
-      <c r="E9" s="21">
+      <c r="F9" s="21">
         <v>325</v>
       </c>
-      <c r="F9" s="21">
+      <c r="G9" s="21">
         <v>299</v>
       </c>
-      <c r="G9" s="21">
+      <c r="H9" s="21">
         <v>246</v>
       </c>
-      <c r="H9" s="21">
+      <c r="I9" s="21">
         <v>161</v>
       </c>
-      <c r="I9" s="21">
+      <c r="J9" s="21">
         <v>111</v>
       </c>
-      <c r="J9" s="21">
+      <c r="K9" s="21">
         <v>86</v>
       </c>
-      <c r="K9" s="22">
+      <c r="L9" s="22">
         <v>76</v>
       </c>
     </row>
@@ -3745,7 +3772,7 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="K23" sqref="K23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.06666666666667" defaultRowHeight="14.4" outlineLevelCol="5"/>
@@ -3991,218 +4018,245 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.06666666666667" defaultRowHeight="14.4" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9.06666666666667" defaultRowHeight="14.4" outlineLevelCol="7"/>
   <sheetData>
-    <row r="1" ht="15.2" spans="1:7">
+    <row r="1" ht="15.2" spans="1:8">
       <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="19">
+        <v>44150</v>
+      </c>
+      <c r="C1" s="19">
         <v>44149</v>
       </c>
-      <c r="C1" s="19">
+      <c r="D1" s="19">
         <v>44142</v>
       </c>
-      <c r="D1" s="19">
+      <c r="E1" s="19">
         <v>44135</v>
       </c>
-      <c r="E1" s="19">
+      <c r="F1" s="19">
         <v>44128</v>
       </c>
-      <c r="F1" s="19">
+      <c r="G1" s="19">
         <v>44121</v>
       </c>
-      <c r="G1" s="19">
+      <c r="H1" s="19">
         <v>44116</v>
       </c>
     </row>
-    <row r="2" ht="15.2" spans="1:7">
+    <row r="2" ht="15.2" spans="1:8">
       <c r="A2" s="20" t="s">
         <v>11</v>
       </c>
       <c r="B2" s="21">
+        <v>2341</v>
+      </c>
+      <c r="C2" s="21">
         <v>2075</v>
       </c>
-      <c r="C2" s="21">
+      <c r="D2" s="21">
         <v>1283</v>
       </c>
-      <c r="D2" s="21">
+      <c r="E2" s="21">
         <v>721</v>
       </c>
-      <c r="E2" s="21">
+      <c r="F2" s="21">
         <v>377</v>
       </c>
-      <c r="F2" s="21">
+      <c r="G2" s="21">
         <v>202</v>
       </c>
-      <c r="G2" s="22">
+      <c r="H2" s="22">
         <v>121</v>
       </c>
     </row>
-    <row r="3" ht="15.2" spans="1:7">
+    <row r="3" ht="15.2" spans="1:8">
       <c r="A3" s="20" t="s">
         <v>12</v>
       </c>
       <c r="B3" s="21">
+        <v>1400</v>
+      </c>
+      <c r="C3" s="21">
         <v>1275</v>
       </c>
-      <c r="C3" s="21">
+      <c r="D3" s="21">
         <v>858</v>
       </c>
-      <c r="D3" s="21">
+      <c r="E3" s="21">
         <v>597</v>
       </c>
-      <c r="E3" s="21">
+      <c r="F3" s="21">
         <v>382</v>
       </c>
-      <c r="F3" s="21">
+      <c r="G3" s="21">
         <v>258</v>
       </c>
-      <c r="G3" s="22">
+      <c r="H3" s="22">
         <v>223</v>
       </c>
     </row>
-    <row r="4" ht="15.2" spans="1:7">
+    <row r="4" ht="15.2" spans="1:8">
       <c r="A4" s="20" t="s">
         <v>13</v>
       </c>
       <c r="B4" s="21">
+        <v>1222</v>
+      </c>
+      <c r="C4" s="21">
         <v>1128</v>
       </c>
-      <c r="C4" s="21">
+      <c r="D4" s="21">
         <v>853</v>
       </c>
-      <c r="D4" s="21">
+      <c r="E4" s="21">
         <v>653</v>
       </c>
-      <c r="E4" s="21">
+      <c r="F4" s="21">
         <v>546</v>
       </c>
-      <c r="F4" s="21">
+      <c r="G4" s="21">
         <v>479</v>
       </c>
-      <c r="G4" s="22">
+      <c r="H4" s="22">
         <v>456</v>
       </c>
     </row>
-    <row r="5" ht="15.2" spans="1:7">
+    <row r="5" ht="15.2" spans="1:8">
       <c r="A5" s="20" t="s">
         <v>14</v>
       </c>
       <c r="B5" s="21">
+        <v>1061</v>
+      </c>
+      <c r="C5" s="21">
         <v>941</v>
       </c>
-      <c r="C5" s="21">
+      <c r="D5" s="21">
         <v>627</v>
       </c>
-      <c r="D5" s="21">
+      <c r="E5" s="21">
         <v>393</v>
       </c>
-      <c r="E5" s="21">
+      <c r="F5" s="21">
         <v>243</v>
       </c>
-      <c r="F5" s="21">
+      <c r="G5" s="21">
         <v>143</v>
       </c>
-      <c r="G5" s="22">
+      <c r="H5" s="22">
         <v>115</v>
       </c>
     </row>
-    <row r="6" ht="15.2" spans="1:7">
+    <row r="6" ht="15.2" spans="1:8">
       <c r="A6" s="20" t="s">
         <v>15</v>
       </c>
       <c r="B6" s="21">
+        <v>730</v>
+      </c>
+      <c r="C6" s="21">
         <v>656</v>
       </c>
-      <c r="C6" s="21">
+      <c r="D6" s="21">
         <v>380</v>
       </c>
-      <c r="D6" s="21">
+      <c r="E6" s="21">
         <v>209</v>
       </c>
-      <c r="E6" s="21">
+      <c r="F6" s="21">
         <v>132</v>
       </c>
-      <c r="F6" s="21">
+      <c r="G6" s="21">
         <v>88</v>
       </c>
-      <c r="G6" s="22">
+      <c r="H6" s="22">
         <v>60</v>
       </c>
     </row>
-    <row r="7" ht="15.2" spans="1:7">
+    <row r="7" ht="15.2" spans="1:8">
       <c r="A7" s="20" t="s">
         <v>16</v>
       </c>
       <c r="B7" s="21">
+        <v>537</v>
+      </c>
+      <c r="C7" s="21">
         <v>503</v>
       </c>
-      <c r="C7" s="21">
+      <c r="D7" s="21">
         <v>382</v>
       </c>
-      <c r="D7" s="21">
+      <c r="E7" s="21">
         <v>277</v>
       </c>
-      <c r="E7" s="21">
+      <c r="F7" s="21">
         <v>210</v>
       </c>
-      <c r="F7" s="21">
+      <c r="G7" s="21">
         <v>145</v>
       </c>
-      <c r="G7" s="22">
+      <c r="H7" s="22">
         <v>98</v>
       </c>
     </row>
-    <row r="8" ht="15.2" spans="1:7">
+    <row r="8" ht="15.2" spans="1:8">
       <c r="A8" s="20" t="s">
         <v>17</v>
       </c>
       <c r="B8" s="21">
+        <v>547</v>
+      </c>
+      <c r="C8" s="21">
         <v>504</v>
       </c>
-      <c r="C8" s="21">
+      <c r="D8" s="21">
         <v>315</v>
       </c>
-      <c r="D8" s="21">
+      <c r="E8" s="21">
         <v>204</v>
       </c>
-      <c r="E8" s="21">
+      <c r="F8" s="21">
         <v>108</v>
       </c>
-      <c r="F8" s="21">
+      <c r="G8" s="21">
         <v>67</v>
       </c>
-      <c r="G8" s="22">
+      <c r="H8" s="22">
         <v>48</v>
       </c>
     </row>
-    <row r="9" ht="15.2" spans="1:7">
+    <row r="9" ht="15.2" spans="1:8">
       <c r="A9" s="20" t="s">
         <v>18</v>
       </c>
       <c r="B9" s="21">
+        <v>402</v>
+      </c>
+      <c r="C9" s="21">
         <v>370</v>
       </c>
-      <c r="C9" s="21">
+      <c r="D9" s="21">
         <v>246</v>
       </c>
-      <c r="D9" s="21">
+      <c r="E9" s="21">
         <v>161</v>
       </c>
-      <c r="E9" s="21">
+      <c r="F9" s="21">
         <v>111</v>
       </c>
-      <c r="F9" s="21">
+      <c r="G9" s="21">
         <v>86</v>
       </c>
-      <c r="G9" s="22">
+      <c r="H9" s="22">
         <v>76</v>
       </c>
     </row>

--- a/public/lib/lofter.xlsx
+++ b/public/lib/lofter.xlsx
@@ -4,23 +4,49 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="29980" windowHeight="14480" activeTab="3"/>
+    <workbookView windowWidth="29980" windowHeight="14480"/>
   </bookViews>
   <sheets>
-    <sheet name="角色" sheetId="4" r:id="rId1"/>
-    <sheet name="CP" sheetId="3" r:id="rId2"/>
-    <sheet name="角色-周" sheetId="2" r:id="rId3"/>
-    <sheet name="CP -周" sheetId="5" r:id="rId4"/>
-    <sheet name="作品" sheetId="6" r:id="rId5"/>
+    <sheet name="CP -周" sheetId="5" r:id="rId1"/>
+    <sheet name="角色-周" sheetId="2" r:id="rId2"/>
+    <sheet name="p站-cp" sheetId="7" r:id="rId3"/>
+    <sheet name="p站-角色" sheetId="8" r:id="rId4"/>
+    <sheet name="角色" sheetId="4" r:id="rId5"/>
+    <sheet name="CP" sheetId="3" r:id="rId6"/>
+    <sheet name="作品" sheetId="6" r:id="rId7"/>
   </sheets>
   <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43">
   <si>
     <t>Tag</t>
+  </si>
+  <si>
+    <t>五悠</t>
+  </si>
+  <si>
+    <t>夏五</t>
+  </si>
+  <si>
+    <t>五夏</t>
+  </si>
+  <si>
+    <t>五伏</t>
+  </si>
+  <si>
+    <t>宿伏</t>
+  </si>
+  <si>
+    <t>虎伏</t>
+  </si>
+  <si>
+    <t>宿虎</t>
+  </si>
+  <si>
+    <t>伏虎</t>
   </si>
   <si>
     <t>五条悟</t>
@@ -53,28 +79,31 @@
     <t>吉野顺平</t>
   </si>
   <si>
-    <t>五悠</t>
+    <t>五棘</t>
   </si>
   <si>
-    <t>夏五</t>
+    <t>七五</t>
   </si>
   <si>
-    <t>五夏</t>
+    <t>伏黒恵</t>
   </si>
   <si>
-    <t>五伏</t>
+    <t>狗巻棘</t>
   </si>
   <si>
-    <t>宿伏</t>
+    <t>夏油傑</t>
   </si>
   <si>
-    <t>虎伏</t>
+    <t>両面宿儺</t>
   </si>
   <si>
-    <t>宿虎</t>
+    <t>伏黒甚爾</t>
   </si>
   <si>
-    <t>伏虎</t>
+    <t>乙骨憂太</t>
+  </si>
+  <si>
+    <t>吉野順平</t>
   </si>
   <si>
     <t>话数</t>
@@ -135,7 +164,7 @@
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="27">
+  <fonts count="29">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -185,6 +214,18 @@
       <color rgb="FF444444"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="微软雅黑"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="微软雅黑"/>
+      <charset val="0"/>
     </font>
     <font>
       <sz val="11"/>
@@ -331,7 +372,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="39">
+  <fills count="42">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -371,6 +412,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFE2EFD9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -715,152 +774,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="36" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="39" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="14" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="31" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="17" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="34" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -937,6 +996,33 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="1" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="1" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
@@ -2986,396 +3072,525 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:H9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.06666666666667" defaultRowHeight="14.4" outlineLevelCol="7"/>
+  <sheetData>
+    <row r="1" ht="15.2" spans="1:8">
+      <c r="A1" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="19">
+        <v>44151</v>
+      </c>
+      <c r="C1" s="19">
+        <v>44149</v>
+      </c>
+      <c r="D1" s="19">
+        <v>44142</v>
+      </c>
+      <c r="E1" s="19">
+        <v>44135</v>
+      </c>
+      <c r="F1" s="19">
+        <v>44128</v>
+      </c>
+      <c r="G1" s="19">
+        <v>44121</v>
+      </c>
+      <c r="H1" s="19">
+        <v>44116</v>
+      </c>
+    </row>
+    <row r="2" ht="15.2" spans="1:8">
+      <c r="A2" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="21">
+        <v>2465</v>
+      </c>
+      <c r="C2" s="21">
+        <v>2075</v>
+      </c>
+      <c r="D2" s="21">
+        <v>1283</v>
+      </c>
+      <c r="E2" s="21">
+        <v>721</v>
+      </c>
+      <c r="F2" s="21">
+        <v>377</v>
+      </c>
+      <c r="G2" s="21">
+        <v>202</v>
+      </c>
+      <c r="H2" s="22">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="3" ht="15.2" spans="1:8">
+      <c r="A3" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="21">
+        <v>1440</v>
+      </c>
+      <c r="C3" s="21">
+        <v>1275</v>
+      </c>
+      <c r="D3" s="21">
+        <v>858</v>
+      </c>
+      <c r="E3" s="21">
+        <v>597</v>
+      </c>
+      <c r="F3" s="21">
+        <v>382</v>
+      </c>
+      <c r="G3" s="21">
+        <v>258</v>
+      </c>
+      <c r="H3" s="22">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="4" ht="15.2" spans="1:8">
+      <c r="A4" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="21">
+        <v>1260</v>
+      </c>
+      <c r="C4" s="21">
+        <v>1128</v>
+      </c>
+      <c r="D4" s="21">
+        <v>853</v>
+      </c>
+      <c r="E4" s="21">
+        <v>653</v>
+      </c>
+      <c r="F4" s="21">
+        <v>546</v>
+      </c>
+      <c r="G4" s="21">
+        <v>479</v>
+      </c>
+      <c r="H4" s="22">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="5" ht="15.2" spans="1:8">
+      <c r="A5" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="21">
+        <v>1101</v>
+      </c>
+      <c r="C5" s="21">
+        <v>941</v>
+      </c>
+      <c r="D5" s="21">
+        <v>627</v>
+      </c>
+      <c r="E5" s="21">
+        <v>393</v>
+      </c>
+      <c r="F5" s="21">
+        <v>243</v>
+      </c>
+      <c r="G5" s="21">
+        <v>143</v>
+      </c>
+      <c r="H5" s="22">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="6" ht="15.2" spans="1:8">
+      <c r="A6" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="21">
+        <v>766</v>
+      </c>
+      <c r="C6" s="21">
+        <v>656</v>
+      </c>
+      <c r="D6" s="21">
+        <v>380</v>
+      </c>
+      <c r="E6" s="21">
+        <v>209</v>
+      </c>
+      <c r="F6" s="21">
+        <v>132</v>
+      </c>
+      <c r="G6" s="21">
+        <v>88</v>
+      </c>
+      <c r="H6" s="22">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="7" ht="15.2" spans="1:8">
+      <c r="A7" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="21">
+        <v>554</v>
+      </c>
+      <c r="C7" s="21">
+        <v>503</v>
+      </c>
+      <c r="D7" s="21">
+        <v>382</v>
+      </c>
+      <c r="E7" s="21">
+        <v>277</v>
+      </c>
+      <c r="F7" s="21">
+        <v>210</v>
+      </c>
+      <c r="G7" s="21">
+        <v>145</v>
+      </c>
+      <c r="H7" s="22">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="8" ht="15.2" spans="1:8">
+      <c r="A8" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="21">
+        <v>566</v>
+      </c>
+      <c r="C8" s="21">
+        <v>504</v>
+      </c>
+      <c r="D8" s="21">
+        <v>315</v>
+      </c>
+      <c r="E8" s="21">
+        <v>204</v>
+      </c>
+      <c r="F8" s="21">
+        <v>108</v>
+      </c>
+      <c r="G8" s="21">
+        <v>67</v>
+      </c>
+      <c r="H8" s="22">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="9" ht="15.2" spans="1:8">
+      <c r="A9" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="21">
+        <v>412</v>
+      </c>
+      <c r="C9" s="21">
+        <v>370</v>
+      </c>
+      <c r="D9" s="21">
+        <v>246</v>
+      </c>
+      <c r="E9" s="21">
+        <v>161</v>
+      </c>
+      <c r="F9" s="21">
+        <v>111</v>
+      </c>
+      <c r="G9" s="21">
+        <v>86</v>
+      </c>
+      <c r="H9" s="22">
+        <v>76</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A4" r:id="rId1" display="五夏"/>
+    <hyperlink ref="A3" r:id="rId2" display="夏五"/>
+    <hyperlink ref="A2" r:id="rId3" display="五悠"/>
+    <hyperlink ref="A5" r:id="rId4" display="五伏"/>
+    <hyperlink ref="A7" r:id="rId5" display="虎伏"/>
+    <hyperlink ref="A9" r:id="rId6" display="伏虎"/>
+    <hyperlink ref="A6" r:id="rId7" display="宿伏"/>
+    <hyperlink ref="A8" r:id="rId8" display="宿虎"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="J29" sqref="J29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.06666666666667" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9.06666666666667" defaultRowHeight="14.4" outlineLevelCol="6"/>
   <sheetData>
-    <row r="1" ht="15.2" spans="1:11">
+    <row r="1" ht="15.2" spans="1:7">
       <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="19">
+        <v>44151</v>
+      </c>
+      <c r="C1" s="19">
         <v>44149</v>
       </c>
-      <c r="C1" s="19">
-        <v>44148</v>
-      </c>
       <c r="D1" s="19">
-        <v>44147</v>
+        <v>44142</v>
       </c>
       <c r="E1" s="19">
-        <v>44146</v>
+        <v>44135</v>
       </c>
       <c r="F1" s="19">
-        <v>44145</v>
+        <v>44128</v>
       </c>
       <c r="G1" s="19">
-        <v>44142</v>
-      </c>
-      <c r="H1" s="19">
-        <v>44135</v>
-      </c>
-      <c r="I1" s="19">
-        <v>44128</v>
-      </c>
-      <c r="J1" s="19">
         <v>44121</v>
       </c>
-      <c r="K1" s="19">
-        <v>44119</v>
-      </c>
-    </row>
-    <row r="2" ht="15.2" spans="1:11">
+    </row>
+    <row r="2" ht="15.2" spans="1:7">
       <c r="A2" s="23" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="B2" s="24">
-        <v>5147</v>
+        <v>6238</v>
       </c>
       <c r="C2" s="24">
-        <v>4811</v>
+        <v>5195</v>
       </c>
       <c r="D2" s="24">
-        <v>4575</v>
+        <v>3429</v>
       </c>
       <c r="E2" s="24">
-        <v>4374</v>
+        <v>2298</v>
       </c>
       <c r="F2" s="24">
-        <v>4137</v>
+        <v>1477</v>
       </c>
       <c r="G2" s="24">
-        <v>3429</v>
-      </c>
-      <c r="H2" s="24">
-        <v>2298</v>
-      </c>
-      <c r="I2" s="24">
-        <v>1477</v>
-      </c>
-      <c r="J2" s="24">
         <v>980</v>
       </c>
-      <c r="K2" s="24">
-        <v>919</v>
-      </c>
-    </row>
-    <row r="3" ht="15.2" spans="1:11">
+    </row>
+    <row r="3" ht="15.2" spans="1:7">
       <c r="A3" s="23" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="B3" s="24">
-        <v>2122</v>
+        <v>2435</v>
       </c>
       <c r="C3" s="24">
-        <v>2021</v>
+        <v>2136</v>
       </c>
       <c r="D3" s="24">
-        <v>1924</v>
+        <v>1495</v>
       </c>
       <c r="E3" s="24">
-        <v>1842</v>
+        <v>975</v>
       </c>
       <c r="F3" s="24">
-        <v>1754</v>
+        <v>623</v>
       </c>
       <c r="G3" s="24">
-        <v>1495</v>
-      </c>
-      <c r="H3" s="24">
-        <v>975</v>
-      </c>
-      <c r="I3" s="24">
-        <v>623</v>
-      </c>
-      <c r="J3" s="24">
         <v>433</v>
       </c>
-      <c r="K3" s="24">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="4" ht="15.2" spans="1:11">
+    </row>
+    <row r="4" ht="15.2" spans="1:7">
       <c r="A4" s="23" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="B4" s="24">
-        <v>2132</v>
+        <v>2522</v>
       </c>
       <c r="C4" s="24">
-        <v>1989</v>
+        <v>2155</v>
       </c>
       <c r="D4" s="24">
-        <v>1887</v>
+        <v>1355</v>
       </c>
       <c r="E4" s="24">
-        <v>1800</v>
+        <v>886</v>
       </c>
       <c r="F4" s="24">
-        <v>1688</v>
+        <v>575</v>
       </c>
       <c r="G4" s="24">
-        <v>1355</v>
-      </c>
-      <c r="H4" s="24">
-        <v>886</v>
-      </c>
-      <c r="I4" s="24">
-        <v>575</v>
-      </c>
-      <c r="J4" s="24">
         <v>394</v>
       </c>
-      <c r="K4" s="24">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="5" ht="15.2" spans="1:11">
+    </row>
+    <row r="5" ht="15.2" spans="1:7">
       <c r="A5" s="23" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="B5" s="24">
-        <v>1573</v>
+        <v>1792</v>
       </c>
       <c r="C5" s="24">
-        <v>1484</v>
+        <v>1579</v>
       </c>
       <c r="D5" s="24">
-        <v>1417</v>
+        <v>1068</v>
       </c>
       <c r="E5" s="24">
-        <v>1347</v>
+        <v>747</v>
       </c>
       <c r="F5" s="24">
-        <v>1271</v>
+        <v>542</v>
       </c>
       <c r="G5" s="24">
-        <v>1068</v>
-      </c>
-      <c r="H5" s="24">
-        <v>747</v>
-      </c>
-      <c r="I5" s="24">
-        <v>542</v>
-      </c>
-      <c r="J5" s="24">
         <v>433</v>
       </c>
-      <c r="K5" s="24">
+    </row>
+    <row r="6" ht="15.2" spans="1:7">
+      <c r="A6" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="24">
+        <v>892</v>
+      </c>
+      <c r="C6" s="24">
+        <v>765</v>
+      </c>
+      <c r="D6" s="24">
+        <v>477</v>
+      </c>
+      <c r="E6" s="24">
+        <v>290</v>
+      </c>
+      <c r="F6" s="24">
+        <v>150</v>
+      </c>
+      <c r="G6" s="24">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" ht="15.2" spans="1:7">
+      <c r="A7" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="24">
+        <v>494</v>
+      </c>
+      <c r="C7" s="24">
         <v>425</v>
       </c>
-    </row>
-    <row r="6" ht="15.2" spans="1:11">
-      <c r="A6" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="24">
-        <v>759</v>
-      </c>
-      <c r="C6" s="24">
-        <v>702</v>
-      </c>
-      <c r="D6" s="24">
-        <v>653</v>
-      </c>
-      <c r="E6" s="24">
-        <v>626</v>
-      </c>
-      <c r="F6" s="24">
-        <v>587</v>
-      </c>
-      <c r="G6" s="24">
-        <v>477</v>
-      </c>
-      <c r="H6" s="24">
-        <v>290</v>
-      </c>
-      <c r="I6" s="24">
-        <v>150</v>
-      </c>
-      <c r="J6" s="24">
+      <c r="D7" s="24">
+        <v>283</v>
+      </c>
+      <c r="E7" s="24">
+        <v>173</v>
+      </c>
+      <c r="F7" s="24">
+        <v>103</v>
+      </c>
+      <c r="G7" s="24">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="8" ht="15.2" spans="1:7">
+      <c r="A8" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="24">
+        <v>300</v>
+      </c>
+      <c r="C8" s="24">
+        <v>263</v>
+      </c>
+      <c r="D8" s="24">
+        <v>156</v>
+      </c>
+      <c r="E8" s="24">
+        <v>112</v>
+      </c>
+      <c r="F8" s="24">
+        <v>75</v>
+      </c>
+      <c r="G8" s="24">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="9" ht="15.2" spans="1:7">
+      <c r="A9" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="25">
+        <v>112</v>
+      </c>
+      <c r="C9" s="25">
         <v>100</v>
       </c>
-      <c r="K6" s="24">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="7" ht="15.2" spans="1:11">
-      <c r="A7" s="23" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="24">
-        <v>421</v>
-      </c>
-      <c r="C7" s="24">
-        <v>393</v>
-      </c>
-      <c r="D7" s="24">
-        <v>366</v>
-      </c>
-      <c r="E7" s="24">
-        <v>350</v>
-      </c>
-      <c r="F7" s="24">
-        <v>331</v>
-      </c>
-      <c r="G7" s="24">
-        <v>283</v>
-      </c>
-      <c r="H7" s="24">
-        <v>173</v>
-      </c>
-      <c r="I7" s="24">
-        <v>103</v>
-      </c>
-      <c r="J7" s="24">
-        <v>65</v>
-      </c>
-      <c r="K7" s="24">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="8" ht="15.2" spans="1:11">
-      <c r="A8" s="23" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" s="24">
-        <v>261</v>
-      </c>
-      <c r="C8" s="24">
-        <v>243</v>
-      </c>
-      <c r="D8" s="24">
-        <v>221</v>
-      </c>
-      <c r="E8" s="24">
-        <v>204</v>
-      </c>
-      <c r="F8" s="24">
-        <v>193</v>
-      </c>
-      <c r="G8" s="24">
-        <v>156</v>
-      </c>
-      <c r="H8" s="24">
-        <v>112</v>
-      </c>
-      <c r="I8" s="24">
-        <v>75</v>
-      </c>
-      <c r="J8" s="24">
-        <v>54</v>
-      </c>
-      <c r="K8" s="24">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="9" ht="15.2" spans="1:11">
-      <c r="A9" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" s="25">
-        <v>100</v>
-      </c>
-      <c r="C9" s="25">
-        <v>96</v>
-      </c>
       <c r="D9" s="25">
-        <v>93</v>
+        <v>68</v>
       </c>
       <c r="E9" s="25">
-        <v>88</v>
+        <v>45</v>
       </c>
       <c r="F9" s="25">
-        <v>80</v>
+        <v>34</v>
       </c>
       <c r="G9" s="25">
-        <v>68</v>
-      </c>
-      <c r="H9" s="25">
-        <v>45</v>
-      </c>
-      <c r="I9" s="25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" ht="15.2" spans="1:7">
+      <c r="A10" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="24">
+        <v>98</v>
+      </c>
+      <c r="C10" s="24">
+        <v>83</v>
+      </c>
+      <c r="D10" s="24">
+        <v>48</v>
+      </c>
+      <c r="E10" s="24">
         <v>34</v>
       </c>
-      <c r="J9" s="25">
+      <c r="F10" s="24">
+        <v>17</v>
+      </c>
+      <c r="G10" s="24">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" ht="15.2" spans="1:7">
+      <c r="A11" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="21">
+        <v>59</v>
+      </c>
+      <c r="C11" s="21">
+        <v>53</v>
+      </c>
+      <c r="D11" s="21">
+        <v>46</v>
+      </c>
+      <c r="E11" s="21">
+        <v>38</v>
+      </c>
+      <c r="F11" s="21">
         <v>28</v>
       </c>
-      <c r="K9" s="25">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="10" ht="15.2" spans="1:11">
-      <c r="A10" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" s="24">
-        <v>82</v>
-      </c>
-      <c r="C10" s="24">
-        <v>77</v>
-      </c>
-      <c r="D10" s="24">
-        <v>75</v>
-      </c>
-      <c r="E10" s="24">
-        <v>72</v>
-      </c>
-      <c r="F10" s="24">
-        <v>66</v>
-      </c>
-      <c r="G10" s="24">
-        <v>48</v>
-      </c>
-      <c r="H10" s="24">
-        <v>34</v>
-      </c>
-      <c r="I10" s="24">
-        <v>17</v>
-      </c>
-      <c r="J10" s="24">
-        <v>12</v>
-      </c>
-      <c r="K10" s="24">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" ht="15.2" spans="1:11">
-      <c r="A11" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" s="21">
-        <v>52</v>
-      </c>
-      <c r="C11" s="21">
-        <v>50</v>
-      </c>
-      <c r="D11" s="21">
-        <v>48</v>
-      </c>
-      <c r="E11" s="21">
-        <v>48</v>
-      </c>
-      <c r="F11" s="21">
-        <v>49</v>
-      </c>
-      <c r="G11" s="21">
-        <v>46</v>
-      </c>
-      <c r="H11" s="21">
-        <v>38</v>
-      </c>
-      <c r="I11" s="21">
-        <v>28</v>
-      </c>
-      <c r="J11" s="24">
-        <v>0</v>
-      </c>
-      <c r="K11" s="24">
+      <c r="G11" s="24">
         <v>0</v>
       </c>
     </row>
@@ -3397,13 +3612,484 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:L9"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B$1:B$1048576"/>
+      <selection activeCell="H17" sqref="H17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.06666666666667" defaultRowHeight="14.4" outlineLevelCol="5"/>
+  <sheetData>
+    <row r="1" ht="15.2" spans="1:6">
+      <c r="A1" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="31">
+        <v>44149</v>
+      </c>
+      <c r="C1" s="31">
+        <v>44142</v>
+      </c>
+      <c r="D1" s="31">
+        <v>44135</v>
+      </c>
+      <c r="E1" s="31">
+        <v>44128</v>
+      </c>
+      <c r="F1" s="31">
+        <v>44119</v>
+      </c>
+    </row>
+    <row r="2" ht="15.2" spans="1:6">
+      <c r="A2" s="32" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="33">
+        <v>1009</v>
+      </c>
+      <c r="C2" s="33">
+        <v>902</v>
+      </c>
+      <c r="D2" s="33">
+        <v>834</v>
+      </c>
+      <c r="E2" s="33">
+        <v>799</v>
+      </c>
+      <c r="F2" s="33">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="3" ht="15.2" spans="1:6">
+      <c r="A3" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="33">
+        <v>377</v>
+      </c>
+      <c r="C3" s="33">
+        <v>364</v>
+      </c>
+      <c r="D3" s="33">
+        <v>344</v>
+      </c>
+      <c r="E3" s="33">
+        <v>336</v>
+      </c>
+      <c r="F3" s="34">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="4" ht="15.2" spans="1:6">
+      <c r="A4" s="32" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="33">
+        <v>369</v>
+      </c>
+      <c r="C4" s="33">
+        <v>332</v>
+      </c>
+      <c r="D4" s="33">
+        <v>307</v>
+      </c>
+      <c r="E4" s="33">
+        <v>287</v>
+      </c>
+      <c r="F4" s="33">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="5" ht="15.2" spans="1:6">
+      <c r="A5" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="33">
+        <v>315</v>
+      </c>
+      <c r="C5" s="33">
+        <v>312</v>
+      </c>
+      <c r="D5" s="33">
+        <v>295</v>
+      </c>
+      <c r="E5" s="33">
+        <v>286</v>
+      </c>
+      <c r="F5" s="33">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="6" ht="15.2" spans="1:6">
+      <c r="A6" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="33">
+        <v>284</v>
+      </c>
+      <c r="C6" s="33">
+        <v>259</v>
+      </c>
+      <c r="D6" s="33">
+        <v>242</v>
+      </c>
+      <c r="E6" s="33">
+        <v>229</v>
+      </c>
+      <c r="F6" s="33">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="7" ht="15.2" spans="1:6">
+      <c r="A7" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" s="33">
+        <v>258</v>
+      </c>
+      <c r="C7" s="33">
+        <v>233</v>
+      </c>
+      <c r="D7" s="33">
+        <v>222</v>
+      </c>
+      <c r="E7" s="33">
+        <v>211</v>
+      </c>
+      <c r="F7" s="33">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="8" ht="15.2" spans="1:6">
+      <c r="A8" s="32" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="33">
+        <v>242</v>
+      </c>
+      <c r="C8" s="33">
+        <v>206</v>
+      </c>
+      <c r="D8" s="33">
+        <v>184</v>
+      </c>
+      <c r="E8" s="33">
+        <v>170</v>
+      </c>
+      <c r="F8" s="33">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="9" ht="15.2" spans="1:6">
+      <c r="A9" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" s="33">
+        <v>225</v>
+      </c>
+      <c r="C9" s="33">
+        <v>214</v>
+      </c>
+      <c r="D9" s="33">
+        <v>201</v>
+      </c>
+      <c r="E9" s="33">
+        <v>190</v>
+      </c>
+      <c r="F9" s="33">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="10" ht="15.2" spans="1:6">
+      <c r="A10" s="32" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="33">
+        <v>127</v>
+      </c>
+      <c r="C10" s="33">
+        <v>117</v>
+      </c>
+      <c r="D10" s="33">
+        <v>105</v>
+      </c>
+      <c r="E10" s="33">
+        <v>102</v>
+      </c>
+      <c r="F10" s="33">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="11" ht="15.2" spans="1:6">
+      <c r="A11" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="33">
+        <v>101</v>
+      </c>
+      <c r="C11" s="33">
+        <v>99</v>
+      </c>
+      <c r="D11" s="33">
+        <v>81</v>
+      </c>
+      <c r="E11" s="33">
+        <v>101</v>
+      </c>
+      <c r="F11" s="33">
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" display="五悠"/>
+    <hyperlink ref="A4" r:id="rId2" display="五伏"/>
+    <hyperlink ref="A3" r:id="rId3" display="虎伏"/>
+    <hyperlink ref="A5" r:id="rId4" display="伏虎"/>
+    <hyperlink ref="A6" r:id="rId5" display="五夏"/>
+    <hyperlink ref="A8" r:id="rId6" display="宿虎"/>
+    <hyperlink ref="A7" r:id="rId7" display="夏五"/>
+    <hyperlink ref="A9" r:id="rId8" display="宿伏"/>
+    <hyperlink ref="A10" r:id="rId9" display="五棘"/>
+    <hyperlink ref="A11" r:id="rId10" display="七五"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:E11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.06666666666667" defaultRowHeight="14.4" outlineLevelCol="4"/>
+  <cols>
+    <col min="2" max="2" width="10.7333333333333"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="15.2" spans="1:5">
+      <c r="A1" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="27">
+        <v>44151</v>
+      </c>
+      <c r="C1" s="27">
+        <v>44142</v>
+      </c>
+      <c r="D1" s="27">
+        <v>44128</v>
+      </c>
+      <c r="E1" s="27">
+        <v>44119</v>
+      </c>
+    </row>
+    <row r="2" ht="15.2" spans="1:5">
+      <c r="A2" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="29">
+        <v>2819</v>
+      </c>
+      <c r="C2" s="29">
+        <v>2092</v>
+      </c>
+      <c r="D2" s="29">
+        <v>1658</v>
+      </c>
+      <c r="E2" s="29">
+        <v>1486</v>
+      </c>
+    </row>
+    <row r="3" ht="15.2" spans="1:5">
+      <c r="A3" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="29">
+        <v>1138</v>
+      </c>
+      <c r="C3" s="29">
+        <v>961</v>
+      </c>
+      <c r="D3" s="29">
+        <v>777</v>
+      </c>
+      <c r="E3" s="29">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="4" ht="15.2" spans="1:5">
+      <c r="A4" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="29">
+        <v>964</v>
+      </c>
+      <c r="C4" s="29">
+        <v>821</v>
+      </c>
+      <c r="D4" s="29">
+        <v>657</v>
+      </c>
+      <c r="E4" s="29">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="5" ht="15.2" spans="1:5">
+      <c r="A5" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="29">
+        <v>687</v>
+      </c>
+      <c r="C5" s="29">
+        <v>700</v>
+      </c>
+      <c r="D5" s="29">
+        <v>477</v>
+      </c>
+      <c r="E5" s="29">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="6" ht="15.2" spans="1:5">
+      <c r="A6" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" s="29">
+        <v>651</v>
+      </c>
+      <c r="C6" s="29">
+        <v>551</v>
+      </c>
+      <c r="D6" s="29">
+        <v>556</v>
+      </c>
+      <c r="E6" s="29">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="7" ht="15.2" spans="1:5">
+      <c r="A7" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" s="29">
+        <v>362</v>
+      </c>
+      <c r="C7" s="29">
+        <v>279</v>
+      </c>
+      <c r="D7" s="29">
+        <v>194</v>
+      </c>
+      <c r="E7" s="29">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="8" ht="15.2" spans="1:5">
+      <c r="A8" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="29">
+        <v>258</v>
+      </c>
+      <c r="C8" s="29">
+        <v>245</v>
+      </c>
+      <c r="D8" s="29">
+        <v>211</v>
+      </c>
+      <c r="E8" s="29">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="9" ht="15.2" spans="1:5">
+      <c r="A9" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" s="29">
+        <v>205</v>
+      </c>
+      <c r="C9" s="29">
+        <v>173</v>
+      </c>
+      <c r="D9" s="29">
+        <v>147</v>
+      </c>
+      <c r="E9" s="29">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="10" ht="15.2" spans="1:5">
+      <c r="A10" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" s="29">
+        <v>153</v>
+      </c>
+      <c r="C10" s="29">
+        <v>135</v>
+      </c>
+      <c r="D10" s="29">
+        <v>123</v>
+      </c>
+      <c r="E10" s="29">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="11" ht="15.2" spans="1:5">
+      <c r="A11" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" s="29">
+        <v>88</v>
+      </c>
+      <c r="C11" s="29">
+        <v>83</v>
+      </c>
+      <c r="D11" s="29">
+        <v>72</v>
+      </c>
+      <c r="E11" s="29">
+        <v>71</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="A2:E11">
+    <sortCondition ref="B2" descending="1"/>
+  </sortState>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" display="五条悟"/>
+    <hyperlink ref="A3" r:id="rId2" display="虎杖悠仁"/>
+    <hyperlink ref="A4" r:id="rId3" display="伏黒恵"/>
+    <hyperlink ref="A5" r:id="rId4" display="狗巻棘"/>
+    <hyperlink ref="A6" r:id="rId5" display="夏油傑"/>
+    <hyperlink ref="A9" r:id="rId6" display="伏黒甚爾"/>
+    <hyperlink ref="A8" r:id="rId7" display="七海建人"/>
+    <hyperlink ref="A10" r:id="rId8" display="乙骨憂太"/>
+    <hyperlink ref="A7" r:id="rId9" display="両面宿儺"/>
+    <hyperlink ref="A11" r:id="rId10" display="吉野順平"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:L11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.06666666666667" defaultRowHeight="14.4"/>
@@ -3443,557 +4129,386 @@
         <v>44121</v>
       </c>
       <c r="L1" s="19">
-        <v>44116</v>
+        <v>44119</v>
       </c>
     </row>
     <row r="2" ht="15.2" spans="1:12">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="24">
+        <v>6062</v>
+      </c>
+      <c r="C2" s="24">
+        <v>5147</v>
+      </c>
+      <c r="D2" s="24">
+        <v>4811</v>
+      </c>
+      <c r="E2" s="24">
+        <v>4575</v>
+      </c>
+      <c r="F2" s="24">
+        <v>4374</v>
+      </c>
+      <c r="G2" s="24">
+        <v>4137</v>
+      </c>
+      <c r="H2" s="24">
+        <v>3429</v>
+      </c>
+      <c r="I2" s="24">
+        <v>2298</v>
+      </c>
+      <c r="J2" s="24">
+        <v>1477</v>
+      </c>
+      <c r="K2" s="24">
+        <v>980</v>
+      </c>
+      <c r="L2" s="24">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="3" ht="15.2" spans="1:12">
+      <c r="A3" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="24">
+        <v>2372</v>
+      </c>
+      <c r="C3" s="24">
+        <v>2122</v>
+      </c>
+      <c r="D3" s="24">
+        <v>2021</v>
+      </c>
+      <c r="E3" s="24">
+        <v>1924</v>
+      </c>
+      <c r="F3" s="24">
+        <v>1842</v>
+      </c>
+      <c r="G3" s="24">
+        <v>1754</v>
+      </c>
+      <c r="H3" s="24">
+        <v>1495</v>
+      </c>
+      <c r="I3" s="24">
+        <v>975</v>
+      </c>
+      <c r="J3" s="24">
+        <v>623</v>
+      </c>
+      <c r="K3" s="24">
+        <v>433</v>
+      </c>
+      <c r="L3" s="24">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="4" ht="15.2" spans="1:12">
+      <c r="A4" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="21">
-        <v>2341</v>
-      </c>
-      <c r="C2" s="21">
-        <v>2065</v>
-      </c>
-      <c r="D2" s="21">
-        <v>1929</v>
-      </c>
-      <c r="E2" s="21">
-        <v>1815</v>
-      </c>
-      <c r="F2" s="21">
-        <v>1734</v>
-      </c>
-      <c r="G2" s="21">
-        <v>1614</v>
-      </c>
-      <c r="H2" s="21">
-        <v>1283</v>
-      </c>
-      <c r="I2" s="21">
-        <v>721</v>
-      </c>
-      <c r="J2" s="21">
-        <v>377</v>
-      </c>
-      <c r="K2" s="21">
-        <v>202</v>
-      </c>
-      <c r="L2" s="22">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="3" ht="15.2" spans="1:12">
-      <c r="A3" s="20" t="s">
+      <c r="B4" s="24">
+        <v>2448</v>
+      </c>
+      <c r="C4" s="24">
+        <v>2132</v>
+      </c>
+      <c r="D4" s="24">
+        <v>1989</v>
+      </c>
+      <c r="E4" s="24">
+        <v>1887</v>
+      </c>
+      <c r="F4" s="24">
+        <v>1800</v>
+      </c>
+      <c r="G4" s="24">
+        <v>1688</v>
+      </c>
+      <c r="H4" s="24">
+        <v>1355</v>
+      </c>
+      <c r="I4" s="24">
+        <v>886</v>
+      </c>
+      <c r="J4" s="24">
+        <v>575</v>
+      </c>
+      <c r="K4" s="24">
+        <v>394</v>
+      </c>
+      <c r="L4" s="24">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="5" ht="15.2" spans="1:12">
+      <c r="A5" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="21">
-        <v>1400</v>
-      </c>
-      <c r="C3" s="21">
-        <v>1274</v>
-      </c>
-      <c r="D3" s="21">
-        <v>1211</v>
-      </c>
-      <c r="E3" s="21">
-        <v>1151</v>
-      </c>
-      <c r="F3" s="21">
-        <v>1112</v>
-      </c>
-      <c r="G3" s="21">
-        <v>1040</v>
-      </c>
-      <c r="H3" s="21">
-        <v>858</v>
-      </c>
-      <c r="I3" s="21">
-        <v>597</v>
-      </c>
-      <c r="J3" s="21">
-        <v>382</v>
-      </c>
-      <c r="K3" s="21">
-        <v>258</v>
-      </c>
-      <c r="L3" s="22">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="4" ht="15.2" spans="1:12">
-      <c r="A4" s="20" t="s">
+      <c r="B5" s="24">
+        <v>1744</v>
+      </c>
+      <c r="C5" s="24">
+        <v>1573</v>
+      </c>
+      <c r="D5" s="24">
+        <v>1484</v>
+      </c>
+      <c r="E5" s="24">
+        <v>1417</v>
+      </c>
+      <c r="F5" s="24">
+        <v>1347</v>
+      </c>
+      <c r="G5" s="24">
+        <v>1271</v>
+      </c>
+      <c r="H5" s="24">
+        <v>1068</v>
+      </c>
+      <c r="I5" s="24">
+        <v>747</v>
+      </c>
+      <c r="J5" s="24">
+        <v>542</v>
+      </c>
+      <c r="K5" s="24">
+        <v>433</v>
+      </c>
+      <c r="L5" s="24">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="6" ht="15.2" spans="1:12">
+      <c r="A6" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="21">
-        <v>1222</v>
-      </c>
-      <c r="C4" s="21">
-        <v>1128</v>
-      </c>
-      <c r="D4" s="21">
-        <v>1075</v>
-      </c>
-      <c r="E4" s="21">
-        <v>1034</v>
-      </c>
-      <c r="F4" s="21">
-        <v>994</v>
-      </c>
-      <c r="G4" s="21">
-        <v>951</v>
-      </c>
-      <c r="H4" s="21">
-        <v>853</v>
-      </c>
-      <c r="I4" s="21">
+      <c r="B6" s="24">
+        <v>865</v>
+      </c>
+      <c r="C6" s="24">
+        <v>759</v>
+      </c>
+      <c r="D6" s="24">
+        <v>702</v>
+      </c>
+      <c r="E6" s="24">
         <v>653</v>
       </c>
-      <c r="J4" s="21">
-        <v>546</v>
-      </c>
-      <c r="K4" s="21">
-        <v>479</v>
-      </c>
-      <c r="L4" s="22">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="5" ht="15.2" spans="1:12">
-      <c r="A5" s="20" t="s">
+      <c r="F6" s="24">
+        <v>626</v>
+      </c>
+      <c r="G6" s="24">
+        <v>587</v>
+      </c>
+      <c r="H6" s="24">
+        <v>477</v>
+      </c>
+      <c r="I6" s="24">
+        <v>290</v>
+      </c>
+      <c r="J6" s="24">
+        <v>150</v>
+      </c>
+      <c r="K6" s="24">
+        <v>100</v>
+      </c>
+      <c r="L6" s="24">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="7" ht="15.2" spans="1:12">
+      <c r="A7" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="21">
-        <v>1061</v>
-      </c>
-      <c r="C5" s="21">
-        <v>935</v>
-      </c>
-      <c r="D5" s="21">
-        <v>890</v>
-      </c>
-      <c r="E5" s="21">
-        <v>846</v>
-      </c>
-      <c r="F5" s="21">
-        <v>809</v>
-      </c>
-      <c r="G5" s="21">
-        <v>760</v>
-      </c>
-      <c r="H5" s="21">
-        <v>627</v>
-      </c>
-      <c r="I5" s="21">
+      <c r="B7" s="24">
+        <v>494</v>
+      </c>
+      <c r="C7" s="24">
+        <v>421</v>
+      </c>
+      <c r="D7" s="24">
         <v>393</v>
       </c>
-      <c r="J5" s="21">
+      <c r="E7" s="24">
+        <v>366</v>
+      </c>
+      <c r="F7" s="24">
+        <v>350</v>
+      </c>
+      <c r="G7" s="24">
+        <v>331</v>
+      </c>
+      <c r="H7" s="24">
+        <v>283</v>
+      </c>
+      <c r="I7" s="24">
+        <v>173</v>
+      </c>
+      <c r="J7" s="24">
+        <v>103</v>
+      </c>
+      <c r="K7" s="24">
+        <v>65</v>
+      </c>
+      <c r="L7" s="24">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="8" ht="15.2" spans="1:12">
+      <c r="A8" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="24">
+        <v>300</v>
+      </c>
+      <c r="C8" s="24">
+        <v>261</v>
+      </c>
+      <c r="D8" s="24">
         <v>243</v>
       </c>
-      <c r="K5" s="21">
-        <v>143</v>
-      </c>
-      <c r="L5" s="22">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="6" ht="15.2" spans="1:12">
-      <c r="A6" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" s="21">
-        <v>730</v>
-      </c>
-      <c r="C6" s="21">
-        <v>647</v>
-      </c>
-      <c r="D6" s="21">
-        <v>600</v>
-      </c>
-      <c r="E6" s="21">
-        <v>575</v>
-      </c>
-      <c r="F6" s="21">
-        <v>547</v>
-      </c>
-      <c r="G6" s="21">
-        <v>502</v>
-      </c>
-      <c r="H6" s="21">
-        <v>380</v>
-      </c>
-      <c r="I6" s="21">
-        <v>209</v>
-      </c>
-      <c r="J6" s="21">
-        <v>132</v>
-      </c>
-      <c r="K6" s="21">
+      <c r="E8" s="24">
+        <v>221</v>
+      </c>
+      <c r="F8" s="24">
+        <v>204</v>
+      </c>
+      <c r="G8" s="24">
+        <v>193</v>
+      </c>
+      <c r="H8" s="24">
+        <v>156</v>
+      </c>
+      <c r="I8" s="24">
+        <v>112</v>
+      </c>
+      <c r="J8" s="24">
+        <v>75</v>
+      </c>
+      <c r="K8" s="24">
+        <v>54</v>
+      </c>
+      <c r="L8" s="24">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="9" ht="15.2" spans="1:12">
+      <c r="A9" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="25">
+        <v>112</v>
+      </c>
+      <c r="C9" s="25">
+        <v>100</v>
+      </c>
+      <c r="D9" s="25">
+        <v>96</v>
+      </c>
+      <c r="E9" s="25">
+        <v>93</v>
+      </c>
+      <c r="F9" s="25">
         <v>88</v>
       </c>
-      <c r="L6" s="22">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="7" ht="15.2" spans="1:12">
-      <c r="A7" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="B7" s="21">
-        <v>537</v>
-      </c>
-      <c r="C7" s="21">
-        <v>501</v>
-      </c>
-      <c r="D7" s="21">
-        <v>484</v>
-      </c>
-      <c r="E7" s="21">
-        <v>468</v>
-      </c>
-      <c r="F7" s="21">
-        <v>452</v>
-      </c>
-      <c r="G7" s="21">
-        <v>435</v>
-      </c>
-      <c r="H7" s="21">
-        <v>382</v>
-      </c>
-      <c r="I7" s="21">
-        <v>277</v>
-      </c>
-      <c r="J7" s="21">
-        <v>210</v>
-      </c>
-      <c r="K7" s="21">
-        <v>145</v>
-      </c>
-      <c r="L7" s="22">
+      <c r="G9" s="25">
+        <v>80</v>
+      </c>
+      <c r="H9" s="25">
+        <v>68</v>
+      </c>
+      <c r="I9" s="25">
+        <v>45</v>
+      </c>
+      <c r="J9" s="25">
+        <v>34</v>
+      </c>
+      <c r="K9" s="25">
+        <v>28</v>
+      </c>
+      <c r="L9" s="25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" ht="15.2" spans="1:12">
+      <c r="A10" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="24">
         <v>98</v>
       </c>
-    </row>
-    <row r="8" ht="15.2" spans="1:12">
-      <c r="A8" s="20" t="s">
+      <c r="C10" s="24">
+        <v>82</v>
+      </c>
+      <c r="D10" s="24">
+        <v>77</v>
+      </c>
+      <c r="E10" s="24">
+        <v>75</v>
+      </c>
+      <c r="F10" s="24">
+        <v>72</v>
+      </c>
+      <c r="G10" s="24">
+        <v>66</v>
+      </c>
+      <c r="H10" s="24">
+        <v>48</v>
+      </c>
+      <c r="I10" s="24">
+        <v>34</v>
+      </c>
+      <c r="J10" s="24">
         <v>17</v>
       </c>
-      <c r="B8" s="21">
-        <v>547</v>
-      </c>
-      <c r="C8" s="21">
-        <v>503</v>
-      </c>
-      <c r="D8" s="21">
-        <v>479</v>
-      </c>
-      <c r="E8" s="21">
-        <v>460</v>
-      </c>
-      <c r="F8" s="21">
-        <v>426</v>
-      </c>
-      <c r="G8" s="21">
-        <v>392</v>
-      </c>
-      <c r="H8" s="21">
-        <v>315</v>
-      </c>
-      <c r="I8" s="21">
-        <v>204</v>
-      </c>
-      <c r="J8" s="21">
-        <v>108</v>
-      </c>
-      <c r="K8" s="21">
-        <v>67</v>
-      </c>
-      <c r="L8" s="22">
+      <c r="K10" s="24">
+        <v>12</v>
+      </c>
+      <c r="L10" s="24">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" ht="15.2" spans="1:12">
+      <c r="A11" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="21">
+        <v>59</v>
+      </c>
+      <c r="C11" s="21">
+        <v>52</v>
+      </c>
+      <c r="D11" s="21">
+        <v>50</v>
+      </c>
+      <c r="E11" s="21">
         <v>48</v>
       </c>
-    </row>
-    <row r="9" ht="15.2" spans="1:12">
-      <c r="A9" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="B9" s="21">
-        <v>402</v>
-      </c>
-      <c r="C9" s="21">
-        <v>369</v>
-      </c>
-      <c r="D9" s="21">
-        <v>355</v>
-      </c>
-      <c r="E9" s="21">
-        <v>338</v>
-      </c>
-      <c r="F9" s="21">
-        <v>325</v>
-      </c>
-      <c r="G9" s="21">
-        <v>299</v>
-      </c>
-      <c r="H9" s="21">
-        <v>246</v>
-      </c>
-      <c r="I9" s="21">
-        <v>161</v>
-      </c>
-      <c r="J9" s="21">
-        <v>111</v>
-      </c>
-      <c r="K9" s="21">
-        <v>86</v>
-      </c>
-      <c r="L9" s="22">
-        <v>76</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A4" r:id="rId1" display="五夏"/>
-    <hyperlink ref="A3" r:id="rId2" display="夏五"/>
-    <hyperlink ref="A2" r:id="rId3" display="五悠"/>
-    <hyperlink ref="A5" r:id="rId4" display="五伏"/>
-    <hyperlink ref="A7" r:id="rId5" display="虎伏"/>
-    <hyperlink ref="A9" r:id="rId6" display="伏虎"/>
-    <hyperlink ref="A6" r:id="rId7" display="宿伏"/>
-    <hyperlink ref="A8" r:id="rId8" display="宿虎"/>
-  </hyperlinks>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
-  <dimension ref="A1:F11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K23" sqref="K23"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.06666666666667" defaultRowHeight="14.4" outlineLevelCol="5"/>
-  <sheetData>
-    <row r="1" ht="15.2" spans="1:6">
-      <c r="A1" s="18" t="s">
+      <c r="F11" s="21">
+        <v>48</v>
+      </c>
+      <c r="G11" s="21">
+        <v>49</v>
+      </c>
+      <c r="H11" s="21">
+        <v>46</v>
+      </c>
+      <c r="I11" s="21">
+        <v>38</v>
+      </c>
+      <c r="J11" s="21">
+        <v>28</v>
+      </c>
+      <c r="K11" s="24">
         <v>0</v>
       </c>
-      <c r="B1" s="19">
-        <v>44149</v>
-      </c>
-      <c r="C1" s="19">
-        <v>44142</v>
-      </c>
-      <c r="D1" s="19">
-        <v>44135</v>
-      </c>
-      <c r="E1" s="19">
-        <v>44128</v>
-      </c>
-      <c r="F1" s="19">
-        <v>44121</v>
-      </c>
-    </row>
-    <row r="2" ht="15.2" spans="1:6">
-      <c r="A2" s="23" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="24">
-        <v>5195</v>
-      </c>
-      <c r="C2" s="24">
-        <v>3429</v>
-      </c>
-      <c r="D2" s="24">
-        <v>2298</v>
-      </c>
-      <c r="E2" s="24">
-        <v>1477</v>
-      </c>
-      <c r="F2" s="24">
-        <v>980</v>
-      </c>
-    </row>
-    <row r="3" ht="15.2" spans="1:6">
-      <c r="A3" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="24">
-        <v>2136</v>
-      </c>
-      <c r="C3" s="24">
-        <v>1495</v>
-      </c>
-      <c r="D3" s="24">
-        <v>975</v>
-      </c>
-      <c r="E3" s="24">
-        <v>623</v>
-      </c>
-      <c r="F3" s="24">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="4" ht="15.2" spans="1:6">
-      <c r="A4" s="23" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="24">
-        <v>2155</v>
-      </c>
-      <c r="C4" s="24">
-        <v>1355</v>
-      </c>
-      <c r="D4" s="24">
-        <v>886</v>
-      </c>
-      <c r="E4" s="24">
-        <v>575</v>
-      </c>
-      <c r="F4" s="24">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="5" ht="15.2" spans="1:6">
-      <c r="A5" s="23" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="24">
-        <v>1579</v>
-      </c>
-      <c r="C5" s="24">
-        <v>1068</v>
-      </c>
-      <c r="D5" s="24">
-        <v>747</v>
-      </c>
-      <c r="E5" s="24">
-        <v>542</v>
-      </c>
-      <c r="F5" s="24">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="6" ht="15.2" spans="1:6">
-      <c r="A6" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="24">
-        <v>765</v>
-      </c>
-      <c r="C6" s="24">
-        <v>477</v>
-      </c>
-      <c r="D6" s="24">
-        <v>290</v>
-      </c>
-      <c r="E6" s="24">
-        <v>150</v>
-      </c>
-      <c r="F6" s="24">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="7" ht="15.2" spans="1:6">
-      <c r="A7" s="23" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="24">
-        <v>425</v>
-      </c>
-      <c r="C7" s="24">
-        <v>283</v>
-      </c>
-      <c r="D7" s="24">
-        <v>173</v>
-      </c>
-      <c r="E7" s="24">
-        <v>103</v>
-      </c>
-      <c r="F7" s="24">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="8" ht="15.2" spans="1:6">
-      <c r="A8" s="23" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" s="24">
-        <v>263</v>
-      </c>
-      <c r="C8" s="24">
-        <v>156</v>
-      </c>
-      <c r="D8" s="24">
-        <v>112</v>
-      </c>
-      <c r="E8" s="24">
-        <v>75</v>
-      </c>
-      <c r="F8" s="24">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="9" ht="15.2" spans="1:6">
-      <c r="A9" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" s="25">
-        <v>100</v>
-      </c>
-      <c r="C9" s="25">
-        <v>68</v>
-      </c>
-      <c r="D9" s="25">
-        <v>45</v>
-      </c>
-      <c r="E9" s="25">
-        <v>34</v>
-      </c>
-      <c r="F9" s="25">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="10" ht="15.2" spans="1:6">
-      <c r="A10" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" s="24">
-        <v>83</v>
-      </c>
-      <c r="C10" s="24">
-        <v>48</v>
-      </c>
-      <c r="D10" s="24">
-        <v>34</v>
-      </c>
-      <c r="E10" s="24">
-        <v>17</v>
-      </c>
-      <c r="F10" s="24">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" ht="15.2" spans="1:6">
-      <c r="A11" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" s="21">
-        <v>53</v>
-      </c>
-      <c r="C11" s="21">
-        <v>46</v>
-      </c>
-      <c r="D11" s="21">
-        <v>38</v>
-      </c>
-      <c r="E11" s="21">
-        <v>28</v>
-      </c>
-      <c r="F11" s="24">
+      <c r="L11" s="24">
         <v>0</v>
       </c>
     </row>
@@ -4015,18 +4530,18 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:L9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B$1:B$1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.06666666666667" defaultRowHeight="14.4" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9.06666666666667" defaultRowHeight="14.4"/>
   <sheetData>
-    <row r="1" ht="15.2" spans="1:8">
+    <row r="1" ht="15.2" spans="1:12">
       <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
@@ -4037,76 +4552,112 @@
         <v>44149</v>
       </c>
       <c r="D1" s="19">
+        <v>44148</v>
+      </c>
+      <c r="E1" s="19">
+        <v>44147</v>
+      </c>
+      <c r="F1" s="19">
+        <v>44146</v>
+      </c>
+      <c r="G1" s="19">
+        <v>44145</v>
+      </c>
+      <c r="H1" s="19">
         <v>44142</v>
       </c>
-      <c r="E1" s="19">
+      <c r="I1" s="19">
         <v>44135</v>
       </c>
-      <c r="F1" s="19">
+      <c r="J1" s="19">
         <v>44128</v>
       </c>
-      <c r="G1" s="19">
+      <c r="K1" s="19">
         <v>44121</v>
       </c>
-      <c r="H1" s="19">
+      <c r="L1" s="19">
         <v>44116</v>
       </c>
     </row>
-    <row r="2" ht="15.2" spans="1:8">
+    <row r="2" ht="15.2" spans="1:12">
       <c r="A2" s="20" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="B2" s="21">
         <v>2341</v>
       </c>
       <c r="C2" s="21">
-        <v>2075</v>
+        <v>2065</v>
       </c>
       <c r="D2" s="21">
+        <v>1929</v>
+      </c>
+      <c r="E2" s="21">
+        <v>1815</v>
+      </c>
+      <c r="F2" s="21">
+        <v>1734</v>
+      </c>
+      <c r="G2" s="21">
+        <v>1614</v>
+      </c>
+      <c r="H2" s="21">
         <v>1283</v>
       </c>
-      <c r="E2" s="21">
+      <c r="I2" s="21">
         <v>721</v>
       </c>
-      <c r="F2" s="21">
+      <c r="J2" s="21">
         <v>377</v>
       </c>
-      <c r="G2" s="21">
+      <c r="K2" s="21">
         <v>202</v>
       </c>
-      <c r="H2" s="22">
+      <c r="L2" s="22">
         <v>121</v>
       </c>
     </row>
-    <row r="3" ht="15.2" spans="1:8">
+    <row r="3" ht="15.2" spans="1:12">
       <c r="A3" s="20" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="B3" s="21">
         <v>1400</v>
       </c>
       <c r="C3" s="21">
-        <v>1275</v>
+        <v>1274</v>
       </c>
       <c r="D3" s="21">
+        <v>1211</v>
+      </c>
+      <c r="E3" s="21">
+        <v>1151</v>
+      </c>
+      <c r="F3" s="21">
+        <v>1112</v>
+      </c>
+      <c r="G3" s="21">
+        <v>1040</v>
+      </c>
+      <c r="H3" s="21">
         <v>858</v>
       </c>
-      <c r="E3" s="21">
+      <c r="I3" s="21">
         <v>597</v>
       </c>
-      <c r="F3" s="21">
+      <c r="J3" s="21">
         <v>382</v>
       </c>
-      <c r="G3" s="21">
+      <c r="K3" s="21">
         <v>258</v>
       </c>
-      <c r="H3" s="22">
+      <c r="L3" s="22">
         <v>223</v>
       </c>
     </row>
-    <row r="4" ht="15.2" spans="1:8">
+    <row r="4" ht="15.2" spans="1:12">
       <c r="A4" s="20" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="B4" s="21">
         <v>1222</v>
@@ -4115,148 +4666,220 @@
         <v>1128</v>
       </c>
       <c r="D4" s="21">
+        <v>1075</v>
+      </c>
+      <c r="E4" s="21">
+        <v>1034</v>
+      </c>
+      <c r="F4" s="21">
+        <v>994</v>
+      </c>
+      <c r="G4" s="21">
+        <v>951</v>
+      </c>
+      <c r="H4" s="21">
         <v>853</v>
       </c>
-      <c r="E4" s="21">
+      <c r="I4" s="21">
         <v>653</v>
       </c>
-      <c r="F4" s="21">
+      <c r="J4" s="21">
         <v>546</v>
       </c>
-      <c r="G4" s="21">
+      <c r="K4" s="21">
         <v>479</v>
       </c>
-      <c r="H4" s="22">
+      <c r="L4" s="22">
         <v>456</v>
       </c>
     </row>
-    <row r="5" ht="15.2" spans="1:8">
+    <row r="5" ht="15.2" spans="1:12">
       <c r="A5" s="20" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="B5" s="21">
         <v>1061</v>
       </c>
       <c r="C5" s="21">
-        <v>941</v>
+        <v>935</v>
       </c>
       <c r="D5" s="21">
+        <v>890</v>
+      </c>
+      <c r="E5" s="21">
+        <v>846</v>
+      </c>
+      <c r="F5" s="21">
+        <v>809</v>
+      </c>
+      <c r="G5" s="21">
+        <v>760</v>
+      </c>
+      <c r="H5" s="21">
         <v>627</v>
       </c>
-      <c r="E5" s="21">
+      <c r="I5" s="21">
         <v>393</v>
       </c>
-      <c r="F5" s="21">
+      <c r="J5" s="21">
         <v>243</v>
       </c>
-      <c r="G5" s="21">
+      <c r="K5" s="21">
         <v>143</v>
       </c>
-      <c r="H5" s="22">
+      <c r="L5" s="22">
         <v>115</v>
       </c>
     </row>
-    <row r="6" ht="15.2" spans="1:8">
+    <row r="6" ht="15.2" spans="1:12">
       <c r="A6" s="20" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="B6" s="21">
         <v>730</v>
       </c>
       <c r="C6" s="21">
-        <v>656</v>
+        <v>647</v>
       </c>
       <c r="D6" s="21">
+        <v>600</v>
+      </c>
+      <c r="E6" s="21">
+        <v>575</v>
+      </c>
+      <c r="F6" s="21">
+        <v>547</v>
+      </c>
+      <c r="G6" s="21">
+        <v>502</v>
+      </c>
+      <c r="H6" s="21">
         <v>380</v>
       </c>
-      <c r="E6" s="21">
+      <c r="I6" s="21">
         <v>209</v>
       </c>
-      <c r="F6" s="21">
+      <c r="J6" s="21">
         <v>132</v>
       </c>
-      <c r="G6" s="21">
+      <c r="K6" s="21">
         <v>88</v>
       </c>
-      <c r="H6" s="22">
+      <c r="L6" s="22">
         <v>60</v>
       </c>
     </row>
-    <row r="7" ht="15.2" spans="1:8">
+    <row r="7" ht="15.2" spans="1:12">
       <c r="A7" s="20" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="B7" s="21">
         <v>537</v>
       </c>
       <c r="C7" s="21">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="D7" s="21">
+        <v>484</v>
+      </c>
+      <c r="E7" s="21">
+        <v>468</v>
+      </c>
+      <c r="F7" s="21">
+        <v>452</v>
+      </c>
+      <c r="G7" s="21">
+        <v>435</v>
+      </c>
+      <c r="H7" s="21">
         <v>382</v>
       </c>
-      <c r="E7" s="21">
+      <c r="I7" s="21">
         <v>277</v>
       </c>
-      <c r="F7" s="21">
+      <c r="J7" s="21">
         <v>210</v>
       </c>
-      <c r="G7" s="21">
+      <c r="K7" s="21">
         <v>145</v>
       </c>
-      <c r="H7" s="22">
+      <c r="L7" s="22">
         <v>98</v>
       </c>
     </row>
-    <row r="8" ht="15.2" spans="1:8">
+    <row r="8" ht="15.2" spans="1:12">
       <c r="A8" s="20" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="B8" s="21">
         <v>547</v>
       </c>
       <c r="C8" s="21">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="D8" s="21">
+        <v>479</v>
+      </c>
+      <c r="E8" s="21">
+        <v>460</v>
+      </c>
+      <c r="F8" s="21">
+        <v>426</v>
+      </c>
+      <c r="G8" s="21">
+        <v>392</v>
+      </c>
+      <c r="H8" s="21">
         <v>315</v>
       </c>
-      <c r="E8" s="21">
+      <c r="I8" s="21">
         <v>204</v>
       </c>
-      <c r="F8" s="21">
+      <c r="J8" s="21">
         <v>108</v>
       </c>
-      <c r="G8" s="21">
+      <c r="K8" s="21">
         <v>67</v>
       </c>
-      <c r="H8" s="22">
+      <c r="L8" s="22">
         <v>48</v>
       </c>
     </row>
-    <row r="9" ht="15.2" spans="1:8">
+    <row r="9" ht="15.2" spans="1:12">
       <c r="A9" s="20" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="B9" s="21">
         <v>402</v>
       </c>
       <c r="C9" s="21">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="D9" s="21">
+        <v>355</v>
+      </c>
+      <c r="E9" s="21">
+        <v>338</v>
+      </c>
+      <c r="F9" s="21">
+        <v>325</v>
+      </c>
+      <c r="G9" s="21">
+        <v>299</v>
+      </c>
+      <c r="H9" s="21">
         <v>246</v>
       </c>
-      <c r="E9" s="21">
+      <c r="I9" s="21">
         <v>161</v>
       </c>
-      <c r="F9" s="21">
+      <c r="J9" s="21">
         <v>111</v>
       </c>
-      <c r="G9" s="21">
+      <c r="K9" s="21">
         <v>86</v>
       </c>
-      <c r="H9" s="22">
+      <c r="L9" s="22">
         <v>76</v>
       </c>
     </row>
@@ -4276,7 +4899,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:F17"/>
@@ -4289,30 +4912,30 @@
   <sheetData>
     <row r="1" ht="27" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="E1" s="12" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="F1" s="13" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" ht="15.2" spans="1:6">
-      <c r="A2" s="26" t="s">
-        <v>25</v>
+      <c r="A2" s="35" t="s">
+        <v>34</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="C2" s="6">
         <v>44116</v>
@@ -4321,16 +4944,16 @@
         <v>2080</v>
       </c>
       <c r="E2" s="14"/>
-      <c r="F2" s="27" t="s">
-        <v>25</v>
+      <c r="F2" s="36" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="3" ht="15.2" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="C3" s="9">
         <v>44121</v>
@@ -4343,15 +4966,15 @@
         <v>451</v>
       </c>
       <c r="F3" s="16" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" ht="15.2" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="C4" s="9">
         <v>44128</v>
@@ -4364,15 +4987,15 @@
         <v>1095</v>
       </c>
       <c r="F4" s="16" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" ht="15.2" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="C5" s="9">
         <v>44135</v>
@@ -4385,15 +5008,15 @@
         <v>1942</v>
       </c>
       <c r="F5" s="16" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6" ht="15.2" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="C6" s="9">
         <v>44142</v>
@@ -4406,15 +5029,15 @@
         <v>2553</v>
       </c>
       <c r="F6" s="16" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" ht="15.2" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="C7" s="9">
         <v>44149</v>
@@ -4430,15 +5053,15 @@
     </row>
     <row r="12" ht="15.2" spans="1:2">
       <c r="A12" s="1" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
     </row>
     <row r="13" ht="15.2" spans="1:2">
       <c r="A13" s="1" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="B13" s="10">
         <v>2531</v>
@@ -4446,7 +5069,7 @@
     </row>
     <row r="14" ht="15.2" spans="1:2">
       <c r="A14" s="1" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="B14" s="10">
         <v>3626</v>
@@ -4454,7 +5077,7 @@
     </row>
     <row r="15" ht="15.2" spans="1:2">
       <c r="A15" s="1" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="B15" s="10">
         <v>5568</v>
@@ -4462,7 +5085,7 @@
     </row>
     <row r="16" ht="15.2" spans="1:2">
       <c r="A16" s="1" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="B16" s="11">
         <v>8121</v>
@@ -4470,7 +5093,7 @@
     </row>
     <row r="17" ht="15.2" spans="1:2">
       <c r="A17" s="1" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="B17" s="10">
         <v>11366</v>

--- a/public/lib/lofter.xlsx
+++ b/public/lib/lofter.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27">
   <si>
     <t>Tag</t>
   </si>
@@ -37,15 +37,18 @@
     <t>宿伏</t>
   </si>
   <si>
+    <t>宿虎</t>
+  </si>
+  <si>
     <t>虎伏</t>
   </si>
   <si>
-    <t>宿虎</t>
-  </si>
-  <si>
     <t>伏虎</t>
   </si>
   <si>
+    <t>虎宿</t>
+  </si>
+  <si>
     <t>五条悟</t>
   </si>
   <si>
@@ -74,12 +77,6 @@
   </si>
   <si>
     <t>吉野顺平</t>
-  </si>
-  <si>
-    <t>五棘</t>
-  </si>
-  <si>
-    <t>七五</t>
   </si>
   <si>
     <t>伏黒恵</t>
@@ -108,14 +105,14 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
-    <numFmt numFmtId="176" formatCode="mm/dd"/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="0_ "/>
+    <numFmt numFmtId="176" formatCode="0_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="mm/dd"/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="26">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -153,6 +150,12 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -169,6 +172,22 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -182,16 +201,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -205,9 +232,61 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -220,82 +299,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="38">
     <fill>
@@ -342,13 +345,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -360,168 +519,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="12">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -559,6 +562,19 @@
     </border>
     <border>
       <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF000000"/>
       </left>
       <right style="thin">
@@ -573,20 +589,24 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -610,6 +630,15 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -622,6 +651,21 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -655,179 +699,164 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="35" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="31" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -836,25 +865,19 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="2" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="41" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -866,13 +889,25 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="41" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="41" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1194,258 +1229,309 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.06666666666667" defaultRowHeight="14.4" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9.06666666666667" defaultRowHeight="15.2"/>
+  <cols>
+    <col min="1" max="16384" width="9.06666666666667" style="13"/>
+  </cols>
   <sheetData>
-    <row r="1" ht="15.2" spans="1:8">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:9">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11">
-        <v>44153</v>
-      </c>
-      <c r="C1" s="11">
+      <c r="B1" s="9">
+        <v>44158</v>
+      </c>
+      <c r="C1" s="9">
+        <v>44156</v>
+      </c>
+      <c r="D1" s="9">
         <v>44149</v>
       </c>
-      <c r="D1" s="11">
+      <c r="E1" s="9">
         <v>44142</v>
       </c>
-      <c r="E1" s="11">
+      <c r="F1" s="9">
         <v>44135</v>
       </c>
-      <c r="F1" s="11">
+      <c r="G1" s="9">
         <v>44128</v>
       </c>
-      <c r="G1" s="11">
+      <c r="H1" s="9">
         <v>44121</v>
       </c>
-      <c r="H1" s="11">
+      <c r="I1" s="9">
         <v>44116</v>
       </c>
     </row>
-    <row r="2" ht="15.2" spans="1:8">
-      <c r="A2" s="16" t="s">
+    <row r="2" spans="1:9">
+      <c r="A2" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="15">
-        <v>2729</v>
-      </c>
-      <c r="C2" s="15">
+      <c r="B2" s="4">
+        <v>3684</v>
+      </c>
+      <c r="C2" s="4">
+        <v>3248</v>
+      </c>
+      <c r="D2" s="4">
         <v>2075</v>
       </c>
-      <c r="D2" s="15">
+      <c r="E2" s="4">
         <v>1283</v>
       </c>
-      <c r="E2" s="15">
+      <c r="F2" s="4">
         <v>721</v>
       </c>
-      <c r="F2" s="15">
+      <c r="G2" s="4">
         <v>377</v>
       </c>
-      <c r="G2" s="15">
+      <c r="H2" s="4">
         <v>202</v>
       </c>
-      <c r="H2" s="17">
+      <c r="I2" s="18">
         <v>121</v>
       </c>
     </row>
-    <row r="3" ht="15.2" spans="1:8">
-      <c r="A3" s="16" t="s">
+    <row r="3" spans="1:9">
+      <c r="A3" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="15">
-        <v>1600</v>
-      </c>
-      <c r="C3" s="15">
+      <c r="B3" s="4">
+        <v>2112</v>
+      </c>
+      <c r="C3" s="4">
+        <v>1875</v>
+      </c>
+      <c r="D3" s="4">
         <v>1275</v>
       </c>
-      <c r="D3" s="15">
+      <c r="E3" s="4">
         <v>858</v>
       </c>
-      <c r="E3" s="15">
+      <c r="F3" s="4">
         <v>597</v>
       </c>
-      <c r="F3" s="15">
+      <c r="G3" s="4">
         <v>382</v>
       </c>
-      <c r="G3" s="15">
+      <c r="H3" s="4">
         <v>258</v>
       </c>
-      <c r="H3" s="17">
+      <c r="I3" s="18">
         <v>223</v>
       </c>
     </row>
-    <row r="4" ht="15.2" spans="1:8">
-      <c r="A4" s="16" t="s">
+    <row r="4" spans="1:9">
+      <c r="A4" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="15">
-        <v>1318</v>
-      </c>
-      <c r="C4" s="15">
+      <c r="B4" s="4">
+        <v>1548</v>
+      </c>
+      <c r="C4" s="4">
+        <v>1434</v>
+      </c>
+      <c r="D4" s="4">
         <v>1128</v>
       </c>
-      <c r="D4" s="15">
+      <c r="E4" s="4">
         <v>853</v>
       </c>
-      <c r="E4" s="15">
+      <c r="F4" s="4">
         <v>653</v>
       </c>
-      <c r="F4" s="15">
+      <c r="G4" s="4">
         <v>546</v>
       </c>
-      <c r="G4" s="15">
+      <c r="H4" s="4">
         <v>479</v>
       </c>
-      <c r="H4" s="17">
+      <c r="I4" s="18">
         <v>456</v>
       </c>
     </row>
-    <row r="5" ht="15.2" spans="1:8">
-      <c r="A5" s="16" t="s">
+    <row r="5" spans="1:9">
+      <c r="A5" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="15">
-        <v>1216</v>
-      </c>
-      <c r="C5" s="15">
+      <c r="B5" s="4">
+        <v>1629</v>
+      </c>
+      <c r="C5" s="4">
+        <v>1445</v>
+      </c>
+      <c r="D5" s="4">
         <v>941</v>
       </c>
-      <c r="D5" s="15">
+      <c r="E5" s="4">
         <v>627</v>
       </c>
-      <c r="E5" s="15">
+      <c r="F5" s="4">
         <v>393</v>
       </c>
-      <c r="F5" s="15">
+      <c r="G5" s="4">
         <v>243</v>
       </c>
-      <c r="G5" s="15">
+      <c r="H5" s="4">
         <v>143</v>
       </c>
-      <c r="H5" s="17">
+      <c r="I5" s="18">
         <v>115</v>
       </c>
     </row>
-    <row r="6" ht="15.2" spans="1:8">
-      <c r="A6" s="16" t="s">
+    <row r="6" spans="1:9">
+      <c r="A6" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="15">
-        <v>844</v>
-      </c>
-      <c r="C6" s="15">
+      <c r="B6" s="4">
+        <v>1103</v>
+      </c>
+      <c r="C6" s="4">
+        <v>995</v>
+      </c>
+      <c r="D6" s="4">
         <v>656</v>
       </c>
-      <c r="D6" s="15">
+      <c r="E6" s="4">
         <v>380</v>
       </c>
-      <c r="E6" s="15">
+      <c r="F6" s="4">
         <v>209</v>
       </c>
-      <c r="F6" s="15">
+      <c r="G6" s="4">
         <v>132</v>
       </c>
-      <c r="G6" s="15">
+      <c r="H6" s="4">
         <v>88</v>
       </c>
-      <c r="H6" s="17">
+      <c r="I6" s="18">
         <v>60</v>
       </c>
     </row>
-    <row r="7" ht="15.2" spans="1:8">
-      <c r="A7" s="16" t="s">
+    <row r="7" spans="1:9">
+      <c r="A7" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="15">
-        <v>589</v>
-      </c>
-      <c r="C7" s="15">
+      <c r="B7" s="4">
+        <v>772</v>
+      </c>
+      <c r="C7" s="4">
+        <v>692</v>
+      </c>
+      <c r="D7" s="4">
+        <v>504</v>
+      </c>
+      <c r="E7" s="4">
+        <v>315</v>
+      </c>
+      <c r="F7" s="4">
+        <v>204</v>
+      </c>
+      <c r="G7" s="4">
+        <v>108</v>
+      </c>
+      <c r="H7" s="4">
+        <v>67</v>
+      </c>
+      <c r="I7" s="18">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="4">
+        <v>713</v>
+      </c>
+      <c r="C8" s="4">
+        <v>648</v>
+      </c>
+      <c r="D8" s="4">
         <v>503</v>
       </c>
-      <c r="D7" s="15">
+      <c r="E8" s="4">
         <v>382</v>
       </c>
-      <c r="E7" s="15">
+      <c r="F8" s="4">
         <v>277</v>
       </c>
-      <c r="F7" s="15">
+      <c r="G8" s="4">
         <v>210</v>
       </c>
-      <c r="G7" s="15">
+      <c r="H8" s="4">
         <v>145</v>
       </c>
-      <c r="H7" s="17">
+      <c r="I8" s="18">
         <v>98</v>
       </c>
     </row>
-    <row r="8" ht="15.2" spans="1:8">
-      <c r="A8" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" s="15">
-        <v>600</v>
-      </c>
-      <c r="C8" s="15">
-        <v>504</v>
-      </c>
-      <c r="D8" s="15">
-        <v>315</v>
-      </c>
-      <c r="E8" s="15">
-        <v>204</v>
-      </c>
-      <c r="F8" s="15">
-        <v>108</v>
-      </c>
-      <c r="G8" s="15">
-        <v>67</v>
-      </c>
-      <c r="H8" s="17">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="9" ht="15.2" spans="1:8">
-      <c r="A9" s="16" t="s">
+    <row r="9" spans="1:9">
+      <c r="A9" s="14" t="s">
         <v>8</v>
       </c>
       <c r="B9" s="15">
-        <v>442</v>
+        <v>586</v>
       </c>
       <c r="C9" s="15">
+        <v>518</v>
+      </c>
+      <c r="D9" s="15">
         <v>370</v>
       </c>
-      <c r="D9" s="15">
+      <c r="E9" s="15">
         <v>246</v>
       </c>
-      <c r="E9" s="15">
+      <c r="F9" s="15">
         <v>161</v>
       </c>
-      <c r="F9" s="15">
+      <c r="G9" s="15">
         <v>111</v>
       </c>
-      <c r="G9" s="15">
+      <c r="H9" s="15">
         <v>86</v>
       </c>
-      <c r="H9" s="17">
+      <c r="I9" s="19">
         <v>76</v>
       </c>
     </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="17">
+        <v>128</v>
+      </c>
+      <c r="C10" s="17">
+        <v>120</v>
+      </c>
+      <c r="D10" s="17"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="17"/>
+      <c r="H10" s="17"/>
+      <c r="I10" s="17"/>
+    </row>
   </sheetData>
+  <sortState ref="A2:I9">
+    <sortCondition ref="C2" descending="1"/>
+  </sortState>
   <hyperlinks>
     <hyperlink ref="A4" r:id="rId1" display="五夏"/>
     <hyperlink ref="A3" r:id="rId2" display="夏五"/>
     <hyperlink ref="A2" r:id="rId3" display="五悠"/>
     <hyperlink ref="A5" r:id="rId4" display="五伏"/>
-    <hyperlink ref="A7" r:id="rId5" display="虎伏"/>
+    <hyperlink ref="A8" r:id="rId5" display="虎伏"/>
     <hyperlink ref="A9" r:id="rId6" display="伏虎"/>
     <hyperlink ref="A6" r:id="rId7" display="宿伏"/>
-    <hyperlink ref="A8" r:id="rId8" display="宿虎"/>
+    <hyperlink ref="A7" r:id="rId8" display="宿虎"/>
+    <hyperlink ref="A10" r:id="rId9" display="虎宿"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
@@ -1455,270 +1541,303 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.06666666666667" defaultRowHeight="14.4" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9.06666666666667" defaultRowHeight="14.4" outlineLevelCol="7"/>
   <sheetData>
-    <row r="1" ht="15.2" spans="1:7">
-      <c r="A1" s="10" t="s">
+    <row r="1" ht="15.2" spans="1:8">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11">
-        <v>44153</v>
-      </c>
-      <c r="C1" s="11">
+      <c r="B1" s="9">
+        <v>44158</v>
+      </c>
+      <c r="C1" s="9">
+        <v>44156</v>
+      </c>
+      <c r="D1" s="9">
         <v>44149</v>
       </c>
-      <c r="D1" s="11">
+      <c r="E1" s="9">
         <v>44142</v>
       </c>
-      <c r="E1" s="11">
+      <c r="F1" s="9">
         <v>44135</v>
       </c>
-      <c r="F1" s="11">
+      <c r="G1" s="9">
         <v>44128</v>
       </c>
-      <c r="G1" s="11">
+      <c r="H1" s="9">
         <v>44121</v>
       </c>
     </row>
-    <row r="2" ht="15.2" spans="1:7">
-      <c r="A2" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" s="13">
-        <v>7006</v>
-      </c>
-      <c r="C2" s="13">
+    <row r="2" ht="15.2" spans="1:8">
+      <c r="A2" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="11">
+        <v>9411</v>
+      </c>
+      <c r="C2" s="11">
+        <v>8283</v>
+      </c>
+      <c r="D2" s="11">
         <v>5195</v>
       </c>
-      <c r="D2" s="13">
+      <c r="E2" s="11">
         <v>3429</v>
       </c>
-      <c r="E2" s="13">
+      <c r="F2" s="11">
         <v>2298</v>
       </c>
-      <c r="F2" s="13">
+      <c r="G2" s="11">
         <v>1477</v>
       </c>
-      <c r="G2" s="13">
+      <c r="H2" s="11">
         <v>980</v>
       </c>
     </row>
-    <row r="3" ht="15.2" spans="1:7">
-      <c r="A3" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="13">
-        <v>2803</v>
-      </c>
-      <c r="C3" s="13">
+    <row r="3" ht="15.2" spans="1:8">
+      <c r="A3" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="11">
+        <v>3876</v>
+      </c>
+      <c r="C3" s="11">
+        <v>3356</v>
+      </c>
+      <c r="D3" s="11">
         <v>2155</v>
       </c>
-      <c r="D3" s="13">
+      <c r="E3" s="11">
         <v>1355</v>
       </c>
-      <c r="E3" s="13">
+      <c r="F3" s="11">
         <v>886</v>
       </c>
-      <c r="F3" s="13">
+      <c r="G3" s="11">
         <v>575</v>
       </c>
-      <c r="G3" s="13">
+      <c r="H3" s="11">
         <v>394</v>
       </c>
     </row>
-    <row r="4" ht="15.2" spans="1:7">
-      <c r="A4" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" s="13">
-        <v>2649</v>
-      </c>
-      <c r="C4" s="13">
+    <row r="4" ht="15.2" spans="1:8">
+      <c r="A4" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="11">
+        <v>3465</v>
+      </c>
+      <c r="C4" s="11">
+        <v>3073</v>
+      </c>
+      <c r="D4" s="11">
         <v>2136</v>
       </c>
-      <c r="D4" s="13">
+      <c r="E4" s="11">
         <v>1495</v>
       </c>
-      <c r="E4" s="13">
+      <c r="F4" s="11">
         <v>975</v>
       </c>
-      <c r="F4" s="13">
+      <c r="G4" s="11">
         <v>623</v>
       </c>
-      <c r="G4" s="13">
+      <c r="H4" s="11">
         <v>433</v>
       </c>
     </row>
-    <row r="5" ht="15.2" spans="1:7">
-      <c r="A5" s="12" t="s">
+    <row r="5" ht="15.2" spans="1:8">
+      <c r="A5" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="11">
+        <v>2551</v>
+      </c>
+      <c r="C5" s="11">
+        <v>2280</v>
+      </c>
+      <c r="D5" s="11">
+        <v>1579</v>
+      </c>
+      <c r="E5" s="11">
+        <v>1068</v>
+      </c>
+      <c r="F5" s="11">
+        <v>747</v>
+      </c>
+      <c r="G5" s="11">
+        <v>542</v>
+      </c>
+      <c r="H5" s="11">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="6" ht="15.2" spans="1:8">
+      <c r="A6" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="11">
+        <v>1353</v>
+      </c>
+      <c r="C6" s="11">
+        <v>1203</v>
+      </c>
+      <c r="D6" s="11">
+        <v>765</v>
+      </c>
+      <c r="E6" s="11">
+        <v>477</v>
+      </c>
+      <c r="F6" s="11">
+        <v>290</v>
+      </c>
+      <c r="G6" s="11">
+        <v>150</v>
+      </c>
+      <c r="H6" s="11">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" ht="15.2" spans="1:8">
+      <c r="A7" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="11">
+        <v>1117</v>
+      </c>
+      <c r="C7" s="11">
+        <v>776</v>
+      </c>
+      <c r="D7" s="11">
+        <v>425</v>
+      </c>
+      <c r="E7" s="11">
+        <v>283</v>
+      </c>
+      <c r="F7" s="11">
+        <v>173</v>
+      </c>
+      <c r="G7" s="11">
+        <v>103</v>
+      </c>
+      <c r="H7" s="11">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="8" ht="15.2" spans="1:8">
+      <c r="A8" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="11">
+        <v>506</v>
+      </c>
+      <c r="C8" s="11">
+        <v>423</v>
+      </c>
+      <c r="D8" s="11">
+        <v>263</v>
+      </c>
+      <c r="E8" s="11">
+        <v>156</v>
+      </c>
+      <c r="F8" s="11">
+        <v>112</v>
+      </c>
+      <c r="G8" s="11">
+        <v>75</v>
+      </c>
+      <c r="H8" s="11">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="9" ht="15.2" spans="1:8">
+      <c r="A9" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="12">
+        <v>178</v>
+      </c>
+      <c r="C9" s="12">
+        <v>155</v>
+      </c>
+      <c r="D9" s="12">
+        <v>100</v>
+      </c>
+      <c r="E9" s="12">
+        <v>68</v>
+      </c>
+      <c r="F9" s="12">
+        <v>45</v>
+      </c>
+      <c r="G9" s="12">
+        <v>34</v>
+      </c>
+      <c r="H9" s="12">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" ht="15.2" spans="1:8">
+      <c r="A10" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="11">
+        <v>174</v>
+      </c>
+      <c r="C10" s="11">
+        <v>144</v>
+      </c>
+      <c r="D10" s="11">
+        <v>83</v>
+      </c>
+      <c r="E10" s="11">
+        <v>48</v>
+      </c>
+      <c r="F10" s="11">
+        <v>34</v>
+      </c>
+      <c r="G10" s="11">
+        <v>17</v>
+      </c>
+      <c r="H10" s="11">
         <v>12</v>
       </c>
-      <c r="B5" s="13">
-        <v>1988</v>
-      </c>
-      <c r="C5" s="13">
-        <v>1579</v>
-      </c>
-      <c r="D5" s="13">
-        <v>1068</v>
-      </c>
-      <c r="E5" s="13">
-        <v>747</v>
-      </c>
-      <c r="F5" s="13">
-        <v>542</v>
-      </c>
-      <c r="G5" s="13">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="6" ht="15.2" spans="1:7">
-      <c r="A6" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" s="13">
-        <v>983</v>
-      </c>
-      <c r="C6" s="13">
-        <v>765</v>
-      </c>
-      <c r="D6" s="13">
-        <v>477</v>
-      </c>
-      <c r="E6" s="13">
-        <v>290</v>
-      </c>
-      <c r="F6" s="13">
-        <v>150</v>
-      </c>
-      <c r="G6" s="13">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="7" ht="15.2" spans="1:7">
-      <c r="A7" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" s="13">
-        <v>601</v>
-      </c>
-      <c r="C7" s="13">
-        <v>425</v>
-      </c>
-      <c r="D7" s="13">
-        <v>283</v>
-      </c>
-      <c r="E7" s="13">
-        <v>173</v>
-      </c>
-      <c r="F7" s="13">
-        <v>103</v>
-      </c>
-      <c r="G7" s="13">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="8" ht="15.2" spans="1:7">
-      <c r="A8" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8" s="13">
-        <v>355</v>
-      </c>
-      <c r="C8" s="13">
-        <v>263</v>
-      </c>
-      <c r="D8" s="13">
-        <v>156</v>
-      </c>
-      <c r="E8" s="13">
-        <v>112</v>
-      </c>
-      <c r="F8" s="13">
-        <v>75</v>
-      </c>
-      <c r="G8" s="13">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="9" ht="15.2" spans="1:7">
-      <c r="A9" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" s="14">
-        <v>134</v>
-      </c>
-      <c r="C9" s="14">
-        <v>100</v>
-      </c>
-      <c r="D9" s="14">
-        <v>68</v>
-      </c>
-      <c r="E9" s="14">
-        <v>45</v>
-      </c>
-      <c r="F9" s="14">
-        <v>34</v>
-      </c>
-      <c r="G9" s="14">
+    </row>
+    <row r="11" ht="15.2" spans="1:8">
+      <c r="A11" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="4">
+        <v>82</v>
+      </c>
+      <c r="C11" s="4">
+        <v>78</v>
+      </c>
+      <c r="D11" s="4">
+        <v>53</v>
+      </c>
+      <c r="E11" s="4">
+        <v>46</v>
+      </c>
+      <c r="F11" s="4">
+        <v>38</v>
+      </c>
+      <c r="G11" s="4">
         <v>28</v>
       </c>
-    </row>
-    <row r="10" ht="15.2" spans="1:7">
-      <c r="A10" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="B10" s="13">
-        <v>116</v>
-      </c>
-      <c r="C10" s="13">
-        <v>83</v>
-      </c>
-      <c r="D10" s="13">
-        <v>48</v>
-      </c>
-      <c r="E10" s="13">
-        <v>34</v>
-      </c>
-      <c r="F10" s="13">
-        <v>17</v>
-      </c>
-      <c r="G10" s="13">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" ht="15.2" spans="1:7">
-      <c r="A11" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="B11" s="15">
-        <v>69</v>
-      </c>
-      <c r="C11" s="15">
-        <v>53</v>
-      </c>
-      <c r="D11" s="15">
-        <v>46</v>
-      </c>
-      <c r="E11" s="15">
-        <v>38</v>
-      </c>
-      <c r="F11" s="15">
-        <v>28</v>
-      </c>
-      <c r="G11" s="13">
+      <c r="H11" s="11">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:G11">
-    <sortCondition ref="B2" descending="1"/>
+  <sortState ref="A2:H11">
+    <sortCondition ref="C2" descending="1"/>
   </sortState>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" display="五条悟"/>
@@ -1740,232 +1859,219 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+      <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.06666666666667" defaultRowHeight="14.4" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9.06666666666667" defaultRowHeight="14.4" outlineLevelCol="6"/>
   <sheetData>
-    <row r="1" ht="15.2" spans="1:6">
-      <c r="A1" s="5" t="s">
+    <row r="1" ht="15.2" spans="1:7">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6">
+      <c r="B1" s="5">
+        <v>44156</v>
+      </c>
+      <c r="C1" s="5">
         <v>44149</v>
       </c>
-      <c r="C1" s="6">
+      <c r="D1" s="5">
         <v>44142</v>
       </c>
-      <c r="D1" s="6">
+      <c r="E1" s="5">
         <v>44135</v>
       </c>
-      <c r="E1" s="6">
+      <c r="F1" s="5">
         <v>44128</v>
       </c>
-      <c r="F1" s="6">
+      <c r="G1" s="5">
         <v>44119</v>
       </c>
     </row>
-    <row r="2" ht="15.2" spans="1:6">
-      <c r="A2" s="7" t="s">
+    <row r="2" ht="15.2" spans="1:7">
+      <c r="A2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="8">
+      <c r="B2" s="7">
+        <v>1137</v>
+      </c>
+      <c r="C2" s="7">
         <v>1009</v>
       </c>
-      <c r="C2" s="8">
+      <c r="D2" s="7">
         <v>902</v>
       </c>
-      <c r="D2" s="8">
+      <c r="E2" s="7">
         <v>834</v>
       </c>
-      <c r="E2" s="8">
+      <c r="F2" s="7">
         <v>799</v>
       </c>
-      <c r="F2" s="8">
+      <c r="G2" s="7">
         <v>777</v>
       </c>
     </row>
-    <row r="3" ht="15.2" spans="1:6">
-      <c r="A3" s="7" t="s">
+    <row r="3" ht="15.2" spans="1:7">
+      <c r="A3" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="7">
+        <v>399</v>
+      </c>
+      <c r="C3" s="7">
+        <v>377</v>
+      </c>
+      <c r="D3" s="7">
+        <v>364</v>
+      </c>
+      <c r="E3" s="7">
+        <v>344</v>
+      </c>
+      <c r="F3" s="7">
+        <v>336</v>
+      </c>
+      <c r="G3" s="7">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="4" ht="15.2" spans="1:7">
+      <c r="A4" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="7">
+        <v>426</v>
+      </c>
+      <c r="C4" s="7">
+        <v>369</v>
+      </c>
+      <c r="D4" s="7">
+        <v>332</v>
+      </c>
+      <c r="E4" s="7">
+        <v>307</v>
+      </c>
+      <c r="F4" s="7">
+        <v>287</v>
+      </c>
+      <c r="G4" s="7">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="5" ht="15.2" spans="1:7">
+      <c r="A5" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="7">
+        <v>334</v>
+      </c>
+      <c r="C5" s="7">
+        <v>315</v>
+      </c>
+      <c r="D5" s="7">
+        <v>312</v>
+      </c>
+      <c r="E5" s="7">
+        <v>295</v>
+      </c>
+      <c r="F5" s="7">
+        <v>286</v>
+      </c>
+      <c r="G5" s="7">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="6" ht="15.2" spans="1:7">
+      <c r="A6" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="7">
+        <v>311</v>
+      </c>
+      <c r="C6" s="7">
+        <v>284</v>
+      </c>
+      <c r="D6" s="7">
+        <v>259</v>
+      </c>
+      <c r="E6" s="7">
+        <v>242</v>
+      </c>
+      <c r="F6" s="7">
+        <v>229</v>
+      </c>
+      <c r="G6" s="7">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="7" ht="15.2" spans="1:7">
+      <c r="A7" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" s="7">
+        <v>291</v>
+      </c>
+      <c r="C7" s="7">
+        <v>258</v>
+      </c>
+      <c r="D7" s="7">
+        <v>233</v>
+      </c>
+      <c r="E7" s="7">
+        <v>222</v>
+      </c>
+      <c r="F7" s="7">
+        <v>211</v>
+      </c>
+      <c r="G7" s="7">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="8" ht="15.2" spans="1:7">
+      <c r="A8" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="8">
-        <v>377</v>
-      </c>
-      <c r="C3" s="8">
-        <v>364</v>
-      </c>
-      <c r="D3" s="8">
-        <v>344</v>
-      </c>
-      <c r="E3" s="8">
-        <v>336</v>
-      </c>
-      <c r="F3" s="9">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="4" ht="15.2" spans="1:6">
-      <c r="A4" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="8">
-        <v>369</v>
-      </c>
-      <c r="C4" s="8">
-        <v>332</v>
-      </c>
-      <c r="D4" s="8">
-        <v>307</v>
-      </c>
-      <c r="E4" s="8">
-        <v>287</v>
-      </c>
-      <c r="F4" s="8">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="5" ht="15.2" spans="1:6">
-      <c r="A5" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="8">
-        <v>315</v>
-      </c>
-      <c r="C5" s="8">
-        <v>312</v>
-      </c>
-      <c r="D5" s="8">
-        <v>295</v>
-      </c>
-      <c r="E5" s="8">
-        <v>286</v>
-      </c>
-      <c r="F5" s="8">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="6" ht="15.2" spans="1:6">
-      <c r="A6" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6" s="8">
-        <v>284</v>
-      </c>
-      <c r="C6" s="8">
-        <v>259</v>
-      </c>
-      <c r="D6" s="8">
+      <c r="B8" s="7">
+        <v>280</v>
+      </c>
+      <c r="C8" s="7">
         <v>242</v>
       </c>
-      <c r="E6" s="8">
-        <v>229</v>
-      </c>
-      <c r="F6" s="8">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="7" ht="15.2" spans="1:6">
-      <c r="A7" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="B7" s="8">
-        <v>258</v>
-      </c>
-      <c r="C7" s="8">
-        <v>233</v>
-      </c>
-      <c r="D7" s="8">
-        <v>222</v>
-      </c>
-      <c r="E7" s="8">
-        <v>211</v>
-      </c>
-      <c r="F7" s="8">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="8" ht="15.2" spans="1:6">
-      <c r="A8" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" s="8">
-        <v>242</v>
-      </c>
-      <c r="C8" s="8">
+      <c r="D8" s="7">
         <v>206</v>
       </c>
-      <c r="D8" s="8">
+      <c r="E8" s="7">
         <v>184</v>
       </c>
-      <c r="E8" s="8">
+      <c r="F8" s="7">
         <v>170</v>
       </c>
-      <c r="F8" s="8">
+      <c r="G8" s="7">
         <v>148</v>
       </c>
     </row>
-    <row r="9" ht="15.2" spans="1:6">
-      <c r="A9" s="7" t="s">
+    <row r="9" ht="15.2" spans="1:7">
+      <c r="A9" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="8">
+      <c r="B9" s="7">
+        <v>266</v>
+      </c>
+      <c r="C9" s="7">
         <v>225</v>
       </c>
-      <c r="C9" s="8">
+      <c r="D9" s="7">
         <v>214</v>
       </c>
-      <c r="D9" s="8">
+      <c r="E9" s="7">
         <v>201</v>
       </c>
-      <c r="E9" s="8">
+      <c r="F9" s="7">
         <v>190</v>
       </c>
-      <c r="F9" s="8">
+      <c r="G9" s="7">
         <v>182</v>
-      </c>
-    </row>
-    <row r="10" ht="15.2" spans="1:6">
-      <c r="A10" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B10" s="8">
-        <v>127</v>
-      </c>
-      <c r="C10" s="8">
-        <v>117</v>
-      </c>
-      <c r="D10" s="8">
-        <v>105</v>
-      </c>
-      <c r="E10" s="8">
-        <v>102</v>
-      </c>
-      <c r="F10" s="8">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="11" ht="15.2" spans="1:6">
-      <c r="A11" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B11" s="8">
-        <v>101</v>
-      </c>
-      <c r="C11" s="8">
-        <v>99</v>
-      </c>
-      <c r="D11" s="8">
-        <v>81</v>
-      </c>
-      <c r="E11" s="8">
-        <v>101</v>
-      </c>
-      <c r="F11" s="8">
-        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -1978,8 +2084,6 @@
     <hyperlink ref="A8" r:id="rId6" display="宿虎"/>
     <hyperlink ref="A7" r:id="rId7" display="夏五"/>
     <hyperlink ref="A9" r:id="rId8" display="宿伏"/>
-    <hyperlink ref="A10" r:id="rId9" display="五棘"/>
-    <hyperlink ref="A11" r:id="rId10" display="七五"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
@@ -1992,7 +2096,7 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.06666666666667" defaultRowHeight="14.4" outlineLevelCol="4"/>
@@ -2019,7 +2123,7 @@
     </row>
     <row r="2" ht="15.2" spans="1:5">
       <c r="A2" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B2" s="4">
         <v>2819</v>
@@ -2036,7 +2140,7 @@
     </row>
     <row r="3" ht="15.2" spans="1:5">
       <c r="A3" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B3" s="4">
         <v>1138</v>
@@ -2053,7 +2157,7 @@
     </row>
     <row r="4" ht="15.2" spans="1:5">
       <c r="A4" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" s="4">
         <v>964</v>
@@ -2070,7 +2174,7 @@
     </row>
     <row r="5" ht="15.2" spans="1:5">
       <c r="A5" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B5" s="4">
         <v>687</v>
@@ -2087,7 +2191,7 @@
     </row>
     <row r="6" ht="15.2" spans="1:5">
       <c r="A6" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B6" s="4">
         <v>651</v>
@@ -2104,7 +2208,7 @@
     </row>
     <row r="7" ht="15.2" spans="1:5">
       <c r="A7" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B7" s="4">
         <v>362</v>
@@ -2121,7 +2225,7 @@
     </row>
     <row r="8" ht="15.2" spans="1:5">
       <c r="A8" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B8" s="4">
         <v>258</v>
@@ -2138,7 +2242,7 @@
     </row>
     <row r="9" ht="15.2" spans="1:5">
       <c r="A9" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B9" s="4">
         <v>205</v>
@@ -2155,7 +2259,7 @@
     </row>
     <row r="10" ht="15.2" spans="1:5">
       <c r="A10" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B10" s="4">
         <v>153</v>
@@ -2172,7 +2276,7 @@
     </row>
     <row r="11" ht="15.2" spans="1:5">
       <c r="A11" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B11" s="4">
         <v>88</v>
